--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.277315192252368</v>
+        <v>7.27731519225244</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.391440067304686</v>
+        <v>7.391440067304736</v>
       </c>
       <c r="E2">
-        <v>26.60456043231304</v>
+        <v>26.60456043231285</v>
       </c>
       <c r="F2">
-        <v>42.12594401444695</v>
+        <v>42.1259440144469</v>
       </c>
       <c r="G2">
-        <v>34.92522411019469</v>
+        <v>34.92522411019466</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.15172249940628</v>
+        <v>18.15172249940613</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>73.42504188923107</v>
+        <v>73.42504188923068</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907815029031954</v>
+        <v>6.907815029031952</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.738402175836466</v>
+        <v>6.738402175836441</v>
       </c>
       <c r="E3">
-        <v>24.49338103954976</v>
+        <v>24.49338103954961</v>
       </c>
       <c r="F3">
-        <v>37.48912519588393</v>
+        <v>37.48912519588388</v>
       </c>
       <c r="G3">
-        <v>31.11892093438151</v>
+        <v>31.1189209343815</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.62196653804952</v>
+        <v>16.6219665380494</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>67.62118304795518</v>
+        <v>67.62118304795499</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.676569162416525</v>
+        <v>6.6765691624165</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.341498735580077</v>
+        <v>6.341498735580169</v>
       </c>
       <c r="E4">
-        <v>23.1767635105032</v>
+        <v>23.17676351050339</v>
       </c>
       <c r="F4">
-        <v>34.75500480124849</v>
+        <v>34.75500480124851</v>
       </c>
       <c r="G4">
-        <v>28.85887909111836</v>
+        <v>28.85887909111841</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.67918755415744</v>
+        <v>15.67918755415759</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>63.9953174704632</v>
+        <v>63.99531747046358</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581277971531662</v>
+        <v>6.581277971531542</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.179701755511155</v>
+        <v>6.17970175551121</v>
       </c>
       <c r="E5">
-        <v>22.63266894229647</v>
+        <v>22.63266894229655</v>
       </c>
       <c r="F5">
-        <v>33.66090543187395</v>
+        <v>33.66090543187394</v>
       </c>
       <c r="G5">
-        <v>27.95037164782369</v>
+        <v>27.95037164782368</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.29184688588026</v>
+        <v>15.29184688588032</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>62.49563984378001</v>
+        <v>62.49563984378016</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565393147795354</v>
+        <v>6.565393147795352</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.152806440181387</v>
+        <v>6.152806440181422</v>
       </c>
       <c r="E6">
-        <v>22.5418070146981</v>
+        <v>22.54180701469806</v>
       </c>
       <c r="F6">
-        <v>33.48025500637916</v>
+        <v>33.48025500637907</v>
       </c>
       <c r="G6">
-        <v>27.80010906061593</v>
+        <v>27.80010906061586</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.22728451765733</v>
+        <v>15.22728451765732</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>62.24512866471553</v>
+        <v>62.24512866471544</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.675288224208963</v>
+        <v>6.675288224208916</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.339318106155859</v>
+        <v>6.339318106155742</v>
       </c>
       <c r="E7">
-        <v>23.16945901037894</v>
+        <v>23.16945901037906</v>
       </c>
       <c r="F7">
-        <v>34.74017696503331</v>
+        <v>34.74017696503314</v>
       </c>
       <c r="G7">
-        <v>28.84658357593292</v>
+        <v>28.84658357593278</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.67397903166272</v>
+        <v>15.67397903166282</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>63.97518903826889</v>
+        <v>63.97518903826905</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.15083047754885</v>
+        <v>7.150830477548897</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.164664918588433</v>
+        <v>7.164664918588451</v>
       </c>
       <c r="E8">
-        <v>25.87912131827974</v>
+        <v>25.87912131827947</v>
       </c>
       <c r="F8">
-        <v>40.49767177852939</v>
+        <v>40.49767177852972</v>
       </c>
       <c r="G8">
-        <v>33.59184183571603</v>
+        <v>33.5918418357163</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.62338643905065</v>
+        <v>17.62338643905044</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>71.43225959697099</v>
+        <v>71.43225959697055</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.049752158932412</v>
+        <v>8.04975215893241</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.893110830635296</v>
+        <v>8.893110830635228</v>
       </c>
       <c r="E9">
-        <v>31.20574021960819</v>
+        <v>31.20574021960813</v>
       </c>
       <c r="F9">
-        <v>53.31967012035749</v>
+        <v>53.31967012035742</v>
       </c>
       <c r="G9">
-        <v>44.02467898396246</v>
+        <v>44.02467898396242</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.58065313473023</v>
+        <v>21.58065313473021</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>86.01703339685245</v>
+        <v>86.01703339685228</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.798597346764668</v>
+        <v>8.798597346764575</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.45725256214495</v>
+        <v>10.45725256214493</v>
       </c>
       <c r="E10">
-        <v>35.63193490464819</v>
+        <v>35.63193490464812</v>
       </c>
       <c r="F10">
-        <v>65.59030724138572</v>
+        <v>65.59030724138495</v>
       </c>
       <c r="G10">
-        <v>53.91468869300654</v>
+        <v>53.91468869300593</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.04264203401992</v>
+        <v>25.04264203401991</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>98.01459662340353</v>
+        <v>98.01459662340322</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.16469116390954</v>
+        <v>9.164691163909534</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.40886631764997</v>
+        <v>11.40886631765015</v>
       </c>
       <c r="E11">
-        <v>38.14533966382865</v>
+        <v>38.14533966382876</v>
       </c>
       <c r="F11">
-        <v>73.29163484615066</v>
+        <v>73.2916348461511</v>
       </c>
       <c r="G11">
-        <v>60.09481955341091</v>
+        <v>60.09481955341131</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.1043593742238</v>
+        <v>27.10435937422391</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>104.745161634296</v>
+        <v>104.7451616342964</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.308188786924717</v>
+        <v>9.308188786924793</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.86884303099992</v>
+        <v>11.86884303100006</v>
       </c>
       <c r="E12">
-        <v>39.31218726729667</v>
+        <v>39.31218726729649</v>
       </c>
       <c r="F12">
-        <v>77.06641881927384</v>
+        <v>77.06641881927443</v>
       </c>
       <c r="G12">
-        <v>63.11863665691708</v>
+        <v>63.11863665691754</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.09074655695171</v>
+        <v>28.09074655695151</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>107.8406294006855</v>
+        <v>107.8406294006854</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.276852161400431</v>
+        <v>9.276852161400374</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.76210592424692</v>
+        <v>11.76210592424686</v>
       </c>
       <c r="E13">
-        <v>39.04419281261467</v>
+        <v>39.04419281261507</v>
       </c>
       <c r="F13">
-        <v>76.18773881376659</v>
+        <v>76.18773881376647</v>
       </c>
       <c r="G13">
-        <v>62.41503411387621</v>
+        <v>62.41503411387611</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.86239871000922</v>
+        <v>27.86239871000954</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>107.1316090389902</v>
+        <v>107.1316090389909</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.176332877703606</v>
+        <v>9.176332877703704</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.44371741862405</v>
+        <v>11.44371741862424</v>
       </c>
       <c r="E14">
-        <v>38.23483927249447</v>
+        <v>38.23483927249449</v>
       </c>
       <c r="F14">
-        <v>73.57653295438537</v>
+        <v>73.57653295438581</v>
       </c>
       <c r="G14">
-        <v>60.32314867855112</v>
+        <v>60.32314867855156</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.1793128636984</v>
+        <v>27.17931286369844</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>104.9833312482103</v>
+        <v>104.9833312482104</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.115693290836314</v>
+        <v>9.115693290836315</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.26610889189941</v>
+        <v>11.26610889189936</v>
       </c>
       <c r="E15">
-        <v>37.77685754042248</v>
+        <v>37.77685754042236</v>
       </c>
       <c r="F15">
-        <v>72.12661472344899</v>
+        <v>72.12661472344919</v>
       </c>
       <c r="G15">
-        <v>59.16092507788747</v>
+        <v>59.16092507788762</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.79694628478167</v>
+        <v>26.79694628478156</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>103.7633845968082</v>
+        <v>103.763384596808</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.774946863746365</v>
+        <v>8.774946863746228</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.40299517399213</v>
+        <v>10.40299517399211</v>
       </c>
       <c r="E16">
-        <v>35.48456470106553</v>
+        <v>35.48456470106559</v>
       </c>
       <c r="F16">
         <v>65.15606960149569</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.92415731152984</v>
+        <v>24.92415731152988</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>97.61774630614295</v>
+        <v>97.61774630614306</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.56799341390473</v>
+        <v>8.567993413904643</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.954190814360047</v>
+        <v>9.954190814360073</v>
       </c>
       <c r="E17">
-        <v>34.24863280029489</v>
+        <v>34.24863280029487</v>
       </c>
       <c r="F17">
-        <v>61.5862685758365</v>
+        <v>61.58626857583727</v>
       </c>
       <c r="G17">
-        <v>50.69433317368451</v>
+        <v>50.69433317368514</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.93989619499828</v>
+        <v>23.93989619499824</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>94.2815009875649</v>
+        <v>94.28150098756498</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.448877026111724</v>
+        <v>8.448877026111676</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.713745774781851</v>
+        <v>9.713745774781875</v>
       </c>
       <c r="E18">
-        <v>33.57402984219424</v>
+        <v>33.57402984219433</v>
       </c>
       <c r="F18">
-        <v>59.69077215963444</v>
+        <v>59.69077215963472</v>
       </c>
       <c r="G18">
-        <v>49.16774117274278</v>
+        <v>49.16774117274299</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.40938915169038</v>
+        <v>23.40938915169043</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>92.45497308564823</v>
+        <v>92.45497308564846</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.408484155072674</v>
+        <v>8.408484155072598</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.634721516174769</v>
+        <v>9.634721516174629</v>
       </c>
       <c r="E19">
-        <v>33.35041219358743</v>
+        <v>33.35041219358757</v>
       </c>
       <c r="F19">
-        <v>59.07051874804492</v>
+        <v>59.07051874804472</v>
       </c>
       <c r="G19">
-        <v>48.66788126924841</v>
+        <v>48.66788126924821</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.23452760772888</v>
+        <v>23.23452760772896</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>91.84873303972432</v>
+        <v>91.84873303972456</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.590019803540573</v>
+        <v>8.590019803540546</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.9999617061451</v>
+        <v>9.999961706145118</v>
       </c>
       <c r="E20">
-        <v>34.37606320232403</v>
+        <v>34.37606320232366</v>
       </c>
       <c r="F20">
-        <v>61.9484719344401</v>
+        <v>61.94847193444009</v>
       </c>
       <c r="G20">
-        <v>50.98588290859207</v>
+        <v>50.98588290859206</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.04062530423278</v>
+        <v>24.04062530423244</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>94.62611024330417</v>
+        <v>94.62611024330342</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.205634070239373</v>
+        <v>9.205634070239348</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.53315874342463</v>
+        <v>11.5331587434247</v>
       </c>
       <c r="E21">
-        <v>38.46370961180587</v>
+        <v>38.46370961180627</v>
       </c>
       <c r="F21">
-        <v>74.30854288221551</v>
+        <v>74.30854288221613</v>
       </c>
       <c r="G21">
-        <v>60.90972656139642</v>
+        <v>60.90972656139694</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.3715052062867</v>
+        <v>27.37150520628704</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>105.591847623569</v>
+        <v>105.5918476235698</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.205634070239373</v>
+        <v>9.205634070239348</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.53315874342463</v>
+        <v>11.5331587434247</v>
       </c>
       <c r="E22">
-        <v>38.46370961180587</v>
+        <v>38.46370961180627</v>
       </c>
       <c r="F22">
-        <v>74.30854288221551</v>
+        <v>74.30854288221613</v>
       </c>
       <c r="G22">
-        <v>60.90972656139642</v>
+        <v>60.90972656139694</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.3715052062867</v>
+        <v>27.37150520628704</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>105.591847623569</v>
+        <v>105.5918476235698</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.404325931200972</v>
+        <v>9.404325931201091</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.2257714989993</v>
+        <v>12.22577149899929</v>
       </c>
       <c r="E23">
-        <v>40.19625646869825</v>
+        <v>40.19625646869831</v>
       </c>
       <c r="F23">
-        <v>80.01598287562716</v>
+        <v>80.015982875628</v>
       </c>
       <c r="G23">
-        <v>65.47940751343128</v>
+        <v>65.47940751343187</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.85209798320363</v>
+        <v>28.85209798320369</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>110.1705145835779</v>
+        <v>110.170514583578</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.580062270625112</v>
+        <v>8.580062270625092</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.979216357822031</v>
+        <v>9.979216357822073</v>
       </c>
       <c r="E24">
-        <v>34.31834527821491</v>
+        <v>34.31834527821507</v>
       </c>
       <c r="F24">
-        <v>61.78425197223416</v>
+        <v>61.78425197223375</v>
       </c>
       <c r="G24">
-        <v>50.85370290807827</v>
+        <v>50.85370290807796</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.99498058823652</v>
+        <v>23.99498058823666</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>94.47004094379736</v>
+        <v>94.47004094379746</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.809713755237616</v>
+        <v>7.809713755237545</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.399189215007873</v>
+        <v>8.399189215008009</v>
       </c>
       <c r="E25">
-        <v>29.73082421189269</v>
+        <v>29.73082421189259</v>
       </c>
       <c r="F25">
-        <v>49.56575831549748</v>
+        <v>49.56575831549758</v>
       </c>
       <c r="G25">
-        <v>40.98382579378826</v>
+        <v>40.98382579378838</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.46537757256143</v>
+        <v>20.46537757256135</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>81.9909342202445</v>
+        <v>81.99093422024436</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.27731519225244</v>
+        <v>7.277315192252368</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.391440067304736</v>
+        <v>7.391440067304686</v>
       </c>
       <c r="E2">
-        <v>26.60456043231285</v>
+        <v>26.60456043231304</v>
       </c>
       <c r="F2">
-        <v>42.1259440144469</v>
+        <v>42.12594401444695</v>
       </c>
       <c r="G2">
-        <v>34.92522411019466</v>
+        <v>34.92522411019469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.15172249940613</v>
+        <v>18.15172249940628</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>73.42504188923068</v>
+        <v>73.42504188923107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907815029031952</v>
+        <v>6.907815029031954</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.738402175836441</v>
+        <v>6.738402175836466</v>
       </c>
       <c r="E3">
-        <v>24.49338103954961</v>
+        <v>24.49338103954976</v>
       </c>
       <c r="F3">
-        <v>37.48912519588388</v>
+        <v>37.48912519588393</v>
       </c>
       <c r="G3">
-        <v>31.1189209343815</v>
+        <v>31.11892093438151</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.6219665380494</v>
+        <v>16.62196653804952</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>67.62118304795499</v>
+        <v>67.62118304795518</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.6765691624165</v>
+        <v>6.676569162416525</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.341498735580169</v>
+        <v>6.341498735580077</v>
       </c>
       <c r="E4">
-        <v>23.17676351050339</v>
+        <v>23.1767635105032</v>
       </c>
       <c r="F4">
-        <v>34.75500480124851</v>
+        <v>34.75500480124849</v>
       </c>
       <c r="G4">
-        <v>28.85887909111841</v>
+        <v>28.85887909111836</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.67918755415759</v>
+        <v>15.67918755415744</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>63.99531747046358</v>
+        <v>63.9953174704632</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581277971531542</v>
+        <v>6.581277971531662</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.17970175551121</v>
+        <v>6.179701755511155</v>
       </c>
       <c r="E5">
-        <v>22.63266894229655</v>
+        <v>22.63266894229647</v>
       </c>
       <c r="F5">
-        <v>33.66090543187394</v>
+        <v>33.66090543187395</v>
       </c>
       <c r="G5">
-        <v>27.95037164782368</v>
+        <v>27.95037164782369</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.29184688588032</v>
+        <v>15.29184688588026</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>62.49563984378016</v>
+        <v>62.49563984378001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565393147795352</v>
+        <v>6.565393147795354</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.152806440181422</v>
+        <v>6.152806440181387</v>
       </c>
       <c r="E6">
-        <v>22.54180701469806</v>
+        <v>22.5418070146981</v>
       </c>
       <c r="F6">
-        <v>33.48025500637907</v>
+        <v>33.48025500637916</v>
       </c>
       <c r="G6">
-        <v>27.80010906061586</v>
+        <v>27.80010906061593</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.22728451765732</v>
+        <v>15.22728451765733</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>62.24512866471544</v>
+        <v>62.24512866471553</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.675288224208916</v>
+        <v>6.675288224208963</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.339318106155742</v>
+        <v>6.339318106155859</v>
       </c>
       <c r="E7">
-        <v>23.16945901037906</v>
+        <v>23.16945901037894</v>
       </c>
       <c r="F7">
-        <v>34.74017696503314</v>
+        <v>34.74017696503331</v>
       </c>
       <c r="G7">
-        <v>28.84658357593278</v>
+        <v>28.84658357593292</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.67397903166282</v>
+        <v>15.67397903166272</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>63.97518903826905</v>
+        <v>63.97518903826889</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.150830477548897</v>
+        <v>7.15083047754885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.164664918588451</v>
+        <v>7.164664918588433</v>
       </c>
       <c r="E8">
-        <v>25.87912131827947</v>
+        <v>25.87912131827974</v>
       </c>
       <c r="F8">
-        <v>40.49767177852972</v>
+        <v>40.49767177852939</v>
       </c>
       <c r="G8">
-        <v>33.5918418357163</v>
+        <v>33.59184183571603</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.62338643905044</v>
+        <v>17.62338643905065</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>71.43225959697055</v>
+        <v>71.43225959697099</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.04975215893241</v>
+        <v>8.049752158932412</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.893110830635228</v>
+        <v>8.893110830635296</v>
       </c>
       <c r="E9">
-        <v>31.20574021960813</v>
+        <v>31.20574021960819</v>
       </c>
       <c r="F9">
-        <v>53.31967012035742</v>
+        <v>53.31967012035749</v>
       </c>
       <c r="G9">
-        <v>44.02467898396242</v>
+        <v>44.02467898396246</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.58065313473021</v>
+        <v>21.58065313473023</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>86.01703339685228</v>
+        <v>86.01703339685245</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.798597346764575</v>
+        <v>8.798597346764668</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.45725256214493</v>
+        <v>10.45725256214495</v>
       </c>
       <c r="E10">
-        <v>35.63193490464812</v>
+        <v>35.63193490464819</v>
       </c>
       <c r="F10">
-        <v>65.59030724138495</v>
+        <v>65.59030724138572</v>
       </c>
       <c r="G10">
-        <v>53.91468869300593</v>
+        <v>53.91468869300654</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.04264203401991</v>
+        <v>25.04264203401992</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>98.01459662340322</v>
+        <v>98.01459662340353</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.164691163909534</v>
+        <v>9.16469116390954</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.40886631765015</v>
+        <v>11.40886631764997</v>
       </c>
       <c r="E11">
-        <v>38.14533966382876</v>
+        <v>38.14533966382865</v>
       </c>
       <c r="F11">
-        <v>73.2916348461511</v>
+        <v>73.29163484615066</v>
       </c>
       <c r="G11">
-        <v>60.09481955341131</v>
+        <v>60.09481955341091</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.10435937422391</v>
+        <v>27.1043593742238</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>104.7451616342964</v>
+        <v>104.745161634296</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.308188786924793</v>
+        <v>9.308188786924717</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.86884303100006</v>
+        <v>11.86884303099992</v>
       </c>
       <c r="E12">
-        <v>39.31218726729649</v>
+        <v>39.31218726729667</v>
       </c>
       <c r="F12">
-        <v>77.06641881927443</v>
+        <v>77.06641881927384</v>
       </c>
       <c r="G12">
-        <v>63.11863665691754</v>
+        <v>63.11863665691708</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.09074655695151</v>
+        <v>28.09074655695171</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>107.8406294006854</v>
+        <v>107.8406294006855</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.276852161400374</v>
+        <v>9.276852161400431</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.76210592424686</v>
+        <v>11.76210592424692</v>
       </c>
       <c r="E13">
-        <v>39.04419281261507</v>
+        <v>39.04419281261467</v>
       </c>
       <c r="F13">
-        <v>76.18773881376647</v>
+        <v>76.18773881376659</v>
       </c>
       <c r="G13">
-        <v>62.41503411387611</v>
+        <v>62.41503411387621</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.86239871000954</v>
+        <v>27.86239871000922</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>107.1316090389909</v>
+        <v>107.1316090389902</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.176332877703704</v>
+        <v>9.176332877703606</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.44371741862424</v>
+        <v>11.44371741862405</v>
       </c>
       <c r="E14">
-        <v>38.23483927249449</v>
+        <v>38.23483927249447</v>
       </c>
       <c r="F14">
-        <v>73.57653295438581</v>
+        <v>73.57653295438537</v>
       </c>
       <c r="G14">
-        <v>60.32314867855156</v>
+        <v>60.32314867855112</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.17931286369844</v>
+        <v>27.1793128636984</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>104.9833312482104</v>
+        <v>104.9833312482103</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.115693290836315</v>
+        <v>9.115693290836314</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.26610889189936</v>
+        <v>11.26610889189941</v>
       </c>
       <c r="E15">
-        <v>37.77685754042236</v>
+        <v>37.77685754042248</v>
       </c>
       <c r="F15">
-        <v>72.12661472344919</v>
+        <v>72.12661472344899</v>
       </c>
       <c r="G15">
-        <v>59.16092507788762</v>
+        <v>59.16092507788747</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.79694628478156</v>
+        <v>26.79694628478167</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>103.763384596808</v>
+        <v>103.7633845968082</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.774946863746228</v>
+        <v>8.774946863746365</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.40299517399211</v>
+        <v>10.40299517399213</v>
       </c>
       <c r="E16">
-        <v>35.48456470106559</v>
+        <v>35.48456470106553</v>
       </c>
       <c r="F16">
         <v>65.15606960149569</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.92415731152988</v>
+        <v>24.92415731152984</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>97.61774630614306</v>
+        <v>97.61774630614295</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.567993413904643</v>
+        <v>8.56799341390473</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.954190814360073</v>
+        <v>9.954190814360047</v>
       </c>
       <c r="E17">
-        <v>34.24863280029487</v>
+        <v>34.24863280029489</v>
       </c>
       <c r="F17">
-        <v>61.58626857583727</v>
+        <v>61.5862685758365</v>
       </c>
       <c r="G17">
-        <v>50.69433317368514</v>
+        <v>50.69433317368451</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.93989619499824</v>
+        <v>23.93989619499828</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>94.28150098756498</v>
+        <v>94.2815009875649</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.448877026111676</v>
+        <v>8.448877026111724</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.713745774781875</v>
+        <v>9.713745774781851</v>
       </c>
       <c r="E18">
-        <v>33.57402984219433</v>
+        <v>33.57402984219424</v>
       </c>
       <c r="F18">
-        <v>59.69077215963472</v>
+        <v>59.69077215963444</v>
       </c>
       <c r="G18">
-        <v>49.16774117274299</v>
+        <v>49.16774117274278</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.40938915169043</v>
+        <v>23.40938915169038</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>92.45497308564846</v>
+        <v>92.45497308564823</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.408484155072598</v>
+        <v>8.408484155072674</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.634721516174629</v>
+        <v>9.634721516174769</v>
       </c>
       <c r="E19">
-        <v>33.35041219358757</v>
+        <v>33.35041219358743</v>
       </c>
       <c r="F19">
-        <v>59.07051874804472</v>
+        <v>59.07051874804492</v>
       </c>
       <c r="G19">
-        <v>48.66788126924821</v>
+        <v>48.66788126924841</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.23452760772896</v>
+        <v>23.23452760772888</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>91.84873303972456</v>
+        <v>91.84873303972432</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.590019803540546</v>
+        <v>8.590019803540573</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.999961706145118</v>
+        <v>9.9999617061451</v>
       </c>
       <c r="E20">
-        <v>34.37606320232366</v>
+        <v>34.37606320232403</v>
       </c>
       <c r="F20">
-        <v>61.94847193444009</v>
+        <v>61.9484719344401</v>
       </c>
       <c r="G20">
-        <v>50.98588290859206</v>
+        <v>50.98588290859207</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.04062530423244</v>
+        <v>24.04062530423278</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>94.62611024330342</v>
+        <v>94.62611024330417</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.205634070239348</v>
+        <v>9.205634070239373</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.5331587434247</v>
+        <v>11.53315874342463</v>
       </c>
       <c r="E21">
-        <v>38.46370961180627</v>
+        <v>38.46370961180587</v>
       </c>
       <c r="F21">
-        <v>74.30854288221613</v>
+        <v>74.30854288221551</v>
       </c>
       <c r="G21">
-        <v>60.90972656139694</v>
+        <v>60.90972656139642</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.37150520628704</v>
+        <v>27.3715052062867</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>105.5918476235698</v>
+        <v>105.591847623569</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.205634070239348</v>
+        <v>9.205634070239373</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.5331587434247</v>
+        <v>11.53315874342463</v>
       </c>
       <c r="E22">
-        <v>38.46370961180627</v>
+        <v>38.46370961180587</v>
       </c>
       <c r="F22">
-        <v>74.30854288221613</v>
+        <v>74.30854288221551</v>
       </c>
       <c r="G22">
-        <v>60.90972656139694</v>
+        <v>60.90972656139642</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.37150520628704</v>
+        <v>27.3715052062867</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>105.5918476235698</v>
+        <v>105.591847623569</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.404325931201091</v>
+        <v>9.404325931200972</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.22577149899929</v>
+        <v>12.2257714989993</v>
       </c>
       <c r="E23">
-        <v>40.19625646869831</v>
+        <v>40.19625646869825</v>
       </c>
       <c r="F23">
-        <v>80.015982875628</v>
+        <v>80.01598287562716</v>
       </c>
       <c r="G23">
-        <v>65.47940751343187</v>
+        <v>65.47940751343128</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.85209798320369</v>
+        <v>28.85209798320363</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>110.170514583578</v>
+        <v>110.1705145835779</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.580062270625092</v>
+        <v>8.580062270625112</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.979216357822073</v>
+        <v>9.979216357822031</v>
       </c>
       <c r="E24">
-        <v>34.31834527821507</v>
+        <v>34.31834527821491</v>
       </c>
       <c r="F24">
-        <v>61.78425197223375</v>
+        <v>61.78425197223416</v>
       </c>
       <c r="G24">
-        <v>50.85370290807796</v>
+        <v>50.85370290807827</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.99498058823666</v>
+        <v>23.99498058823652</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>94.47004094379746</v>
+        <v>94.47004094379736</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.809713755237545</v>
+        <v>7.809713755237616</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.399189215008009</v>
+        <v>8.399189215007873</v>
       </c>
       <c r="E25">
-        <v>29.73082421189259</v>
+        <v>29.73082421189269</v>
       </c>
       <c r="F25">
-        <v>49.56575831549758</v>
+        <v>49.56575831549748</v>
       </c>
       <c r="G25">
-        <v>40.98382579378838</v>
+        <v>40.98382579378826</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.46537757256135</v>
+        <v>20.46537757256143</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>81.99093422024436</v>
+        <v>81.9909342202445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.277315192252368</v>
+        <v>7.27726744978691</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.391440067304686</v>
+        <v>7.379557552125411</v>
       </c>
       <c r="E2">
-        <v>26.60456043231304</v>
+        <v>26.60154092168133</v>
       </c>
       <c r="F2">
-        <v>42.12594401444695</v>
+        <v>42.07435878018008</v>
       </c>
       <c r="G2">
-        <v>34.92522411019469</v>
+        <v>34.96535731626955</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.18987449477663</v>
       </c>
       <c r="I2">
-        <v>18.15172249940628</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>18.15315919021288</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>73.42504188923107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>73.41766045275001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907815029031954</v>
+        <v>6.90778562800332</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.738402175836466</v>
+        <v>6.728070013951997</v>
       </c>
       <c r="E3">
-        <v>24.49338103954976</v>
+        <v>24.49074799919114</v>
       </c>
       <c r="F3">
-        <v>37.48912519588393</v>
+        <v>37.4446650662439</v>
       </c>
       <c r="G3">
-        <v>31.11892093438151</v>
+        <v>31.15592901971069</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30.47457841278881</v>
       </c>
       <c r="I3">
-        <v>16.62196653804952</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>16.62358152316742</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>67.62118304795518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>67.61584635201061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.676569162416525</v>
+        <v>6.676548388899159</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.341498735580077</v>
+        <v>6.332057431132086</v>
       </c>
       <c r="E4">
-        <v>23.1767635105032</v>
+        <v>23.17432291709473</v>
       </c>
       <c r="F4">
-        <v>34.75500480124849</v>
+        <v>34.71444710715602</v>
       </c>
       <c r="G4">
-        <v>28.85887909111836</v>
+        <v>28.89379360498179</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>28.28169786320687</v>
       </c>
       <c r="I4">
-        <v>15.67918755415744</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.68084815577885</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>63.9953174704632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>63.99099062548048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581277971531662</v>
+        <v>6.581260235373001</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.179701755511155</v>
+        <v>6.170614296126295</v>
       </c>
       <c r="E5">
-        <v>22.63266894229647</v>
+        <v>22.63030030719763</v>
       </c>
       <c r="F5">
-        <v>33.66090543187395</v>
+        <v>33.62185720409192</v>
       </c>
       <c r="G5">
-        <v>27.95037164782369</v>
+        <v>27.98440371403987</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>27.40366961517366</v>
       </c>
       <c r="I5">
-        <v>15.29184688588026</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>15.29351509391685</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>62.49563984378001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>62.49168204610219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565393147795354</v>
+        <v>6.565375891112433</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.152806440181387</v>
+        <v>6.143777322050305</v>
       </c>
       <c r="E6">
-        <v>22.5418070146981</v>
+        <v>22.53945003887542</v>
       </c>
       <c r="F6">
-        <v>33.48025500637916</v>
+        <v>33.44145337809263</v>
       </c>
       <c r="G6">
-        <v>27.80010906061593</v>
+        <v>27.833993135739</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>27.25866473173089</v>
       </c>
       <c r="I6">
-        <v>15.22728451765733</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15.22895343209201</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>62.24512866471553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>62.24123000157636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.675288224208963</v>
+        <v>6.675267493402219</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.339318106155859</v>
+        <v>6.32988160440948</v>
       </c>
       <c r="E7">
-        <v>23.16945901037894</v>
+        <v>23.1670194088171</v>
       </c>
       <c r="F7">
-        <v>34.74017696503331</v>
+        <v>34.69963991604116</v>
       </c>
       <c r="G7">
-        <v>28.84658357593292</v>
+        <v>28.88148629287141</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>28.26980041593217</v>
       </c>
       <c r="I7">
-        <v>15.67397903166272</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.67563977528456</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>63.97518903826889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>63.9708673225842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.15083047754885</v>
+        <v>7.150789745207183</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.164664918588433</v>
+        <v>7.153334181863088</v>
       </c>
       <c r="E8">
-        <v>25.87912131827974</v>
+        <v>25.87624811914845</v>
       </c>
       <c r="F8">
-        <v>40.49767177852939</v>
+        <v>40.44866993552493</v>
       </c>
       <c r="G8">
-        <v>33.59184183571603</v>
+        <v>33.6309451959533</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>32.88568241845519</v>
       </c>
       <c r="I8">
-        <v>17.62338643905065</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>17.62490180506997</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>71.43225959697099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>71.42564881506563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.049752158932412</v>
+        <v>8.049634744526314</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.893110830635296</v>
+        <v>8.877070131180865</v>
       </c>
       <c r="E9">
-        <v>31.20574021960819</v>
+        <v>31.20118279820527</v>
       </c>
       <c r="F9">
-        <v>53.31967012035749</v>
+        <v>53.24697325969344</v>
       </c>
       <c r="G9">
-        <v>44.02467898396246</v>
+        <v>44.06915287997724</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>43.14363646565123</v>
       </c>
       <c r="I9">
-        <v>21.58065313473023</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>21.58087873780524</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>86.01703339685245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>86.00222756626573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.798597346764668</v>
+        <v>8.798216851249812</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.45725256214495</v>
+        <v>10.43516124418555</v>
       </c>
       <c r="E10">
-        <v>35.63193490464819</v>
+        <v>35.62324266869996</v>
       </c>
       <c r="F10">
-        <v>65.59030724138572</v>
+        <v>65.48190837653522</v>
       </c>
       <c r="G10">
-        <v>53.91468869300654</v>
+        <v>53.95378238523738</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>52.93559179495866</v>
       </c>
       <c r="I10">
-        <v>25.04264203401992</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>25.03888342949342</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>98.01459662340353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>97.98373255602404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.16469116390954</v>
+        <v>9.164067845236252</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.40886631764997</v>
+        <v>11.3810183742305</v>
       </c>
       <c r="E11">
-        <v>38.14533966382865</v>
+        <v>38.13038891522497</v>
       </c>
       <c r="F11">
-        <v>73.29163484615066</v>
+        <v>73.1445839809812</v>
       </c>
       <c r="G11">
-        <v>60.09481955341091</v>
+        <v>60.11749691819502</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>59.06389501046295</v>
       </c>
       <c r="I11">
-        <v>27.1043593742238</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>27.09442332459037</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>104.745161634296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>104.6938825456673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.308188786924717</v>
+        <v>9.30736904965811</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.86884303099992</v>
+        <v>11.83691192728359</v>
       </c>
       <c r="E12">
-        <v>39.31218726729667</v>
+        <v>39.29162618208883</v>
       </c>
       <c r="F12">
-        <v>77.06641881927384</v>
+        <v>76.88990051713162</v>
       </c>
       <c r="G12">
-        <v>63.11863665691708</v>
+        <v>63.12483635391531</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>62.05849182431761</v>
       </c>
       <c r="I12">
-        <v>28.09074655695171</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>28.07530155464116</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>107.8406294006855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>107.7725818018731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.276852161400431</v>
+        <v>9.276085214088505</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.76210592424692</v>
+        <v>11.73124000492467</v>
       </c>
       <c r="E13">
-        <v>39.04419281261467</v>
+        <v>39.02517493969091</v>
       </c>
       <c r="F13">
-        <v>76.18773881376659</v>
+        <v>76.01903999794621</v>
       </c>
       <c r="G13">
-        <v>62.41503411387621</v>
+        <v>62.42583841578024</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>61.36222178401639</v>
       </c>
       <c r="I13">
-        <v>27.86239871000922</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>27.84846573915364</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>107.1316090389902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>107.0680843401194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.176332877703606</v>
+        <v>9.175697164118876</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.44371741862405</v>
+        <v>11.41560078785598</v>
       </c>
       <c r="E14">
-        <v>38.23483927249447</v>
+        <v>38.21954618735216</v>
       </c>
       <c r="F14">
-        <v>73.57653295438537</v>
+        <v>73.42758819913536</v>
       </c>
       <c r="G14">
-        <v>60.32314867855112</v>
+        <v>60.34484684377508</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>59.29018729207538</v>
       </c>
       <c r="I14">
-        <v>27.1793128636984</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>27.16903969645327</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>104.9833312482103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>104.930999362129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.115693290836314</v>
+        <v>9.115117410653562</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.26610889189941</v>
+        <v>11.23930676221406</v>
       </c>
       <c r="E15">
-        <v>37.77685754042248</v>
+        <v>37.76319961987068</v>
       </c>
       <c r="F15">
-        <v>72.12661472344899</v>
+        <v>71.98686694305293</v>
       </c>
       <c r="G15">
-        <v>59.16092507788747</v>
+        <v>59.18725289776299</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>58.13814844443424</v>
       </c>
       <c r="I15">
-        <v>26.79694628478167</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>26.78828446549983</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>103.7633845968082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>103.7161267765662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.774946863746365</v>
+        <v>8.774576240090273</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.40299517399213</v>
+        <v>10.38116586730523</v>
       </c>
       <c r="E16">
-        <v>35.48456470106553</v>
+        <v>35.47610446479291</v>
       </c>
       <c r="F16">
-        <v>65.15606960149569</v>
+        <v>65.04933063874229</v>
       </c>
       <c r="G16">
-        <v>53.56570817626325</v>
+        <v>53.60531089199132</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>52.58955311638145</v>
       </c>
       <c r="I16">
-        <v>24.92415731152984</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>24.92062735703887</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>97.61774630614295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>97.58770154984319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.56799341390473</v>
+        <v>8.567693838014081</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.954190814360047</v>
+        <v>9.934349540219525</v>
       </c>
       <c r="E17">
-        <v>34.24863280029489</v>
+        <v>34.24177459625202</v>
       </c>
       <c r="F17">
-        <v>61.5862685758365</v>
+        <v>61.49180248577607</v>
       </c>
       <c r="G17">
-        <v>50.69433317368451</v>
+        <v>50.73701814464736</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>49.74332337724859</v>
       </c>
       <c r="I17">
-        <v>23.93989619499828</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>23.93793792358105</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>94.2815009875649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>94.25732012249793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.448877026111724</v>
+        <v>8.448609053708847</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.713745774781851</v>
+        <v>9.694859727668298</v>
       </c>
       <c r="E18">
-        <v>33.57402984219424</v>
+        <v>33.56784209179669</v>
       </c>
       <c r="F18">
-        <v>59.69077215963444</v>
+        <v>59.60199243886314</v>
       </c>
       <c r="G18">
-        <v>49.16774117274278</v>
+        <v>49.21139562662641</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>48.2310455342203</v>
       </c>
       <c r="I18">
-        <v>23.40938915169038</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>23.40808151893596</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>92.45497308564823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>92.43338007262092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.408484155072674</v>
+        <v>8.408225755236606</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.634721516174769</v>
+        <v>9.616135468931306</v>
       </c>
       <c r="E19">
-        <v>33.35041219358743</v>
+        <v>33.34442188349021</v>
       </c>
       <c r="F19">
-        <v>59.07051874804492</v>
+        <v>58.98349569269213</v>
       </c>
       <c r="G19">
-        <v>48.66788126924841</v>
+        <v>48.7117692775696</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>47.73605458438371</v>
       </c>
       <c r="I19">
-        <v>23.23452760772888</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>23.23341016623195</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>91.84873303972432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>91.82792110991113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.590019803540573</v>
+        <v>8.589713751430592</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.9999617061451</v>
+        <v>9.97993073951586</v>
       </c>
       <c r="E20">
-        <v>34.37606320232403</v>
+        <v>34.36906422192273</v>
       </c>
       <c r="F20">
-        <v>61.9484719344401</v>
+        <v>61.85286001768643</v>
       </c>
       <c r="G20">
-        <v>50.98588290859207</v>
+        <v>51.02833500345284</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>50.03222500103763</v>
       </c>
       <c r="I20">
-        <v>24.04062530423278</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>24.03852968796253</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>94.62611024330417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>94.6013974172137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.205634070239373</v>
+        <v>9.204964929595469</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.53315874342463</v>
+        <v>11.5043260376619</v>
       </c>
       <c r="E21">
-        <v>38.46370961180587</v>
+        <v>38.44748456625202</v>
       </c>
       <c r="F21">
-        <v>74.30854288221551</v>
+        <v>74.15451726172785</v>
       </c>
       <c r="G21">
-        <v>60.90972656139642</v>
+        <v>60.92873675572206</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>59.87143380222238</v>
       </c>
       <c r="I21">
-        <v>27.3715052062867</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>27.36031493024559</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>105.591847623569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>105.5366724818726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.205634070239373</v>
+        <v>9.204964929595469</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.53315874342463</v>
+        <v>11.5043260376619</v>
       </c>
       <c r="E22">
-        <v>38.46370961180587</v>
+        <v>38.44748456625202</v>
       </c>
       <c r="F22">
-        <v>74.30854288221551</v>
+        <v>74.15451726172785</v>
       </c>
       <c r="G22">
-        <v>60.90972656139642</v>
+        <v>60.92873675572206</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>59.87143380222238</v>
       </c>
       <c r="I22">
-        <v>27.3715052062867</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>27.36031493024559</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>105.591847623569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>105.5366724818726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.404325931200972</v>
+        <v>9.204964929595469</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.2257714989993</v>
+        <v>11.5043260376619</v>
       </c>
       <c r="E23">
-        <v>40.19625646869825</v>
+        <v>38.44748456625202</v>
       </c>
       <c r="F23">
-        <v>80.01598287562716</v>
+        <v>74.15451726172785</v>
       </c>
       <c r="G23">
-        <v>65.47940751343128</v>
+        <v>60.92873675572206</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>59.87143380222238</v>
       </c>
       <c r="I23">
-        <v>28.85209798320363</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>27.36031493024559</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>110.1705145835779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>105.5366724818726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.580062270625112</v>
+        <v>9.204964929595469</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.979216357822031</v>
+        <v>11.5043260376619</v>
       </c>
       <c r="E24">
-        <v>34.31834527821491</v>
+        <v>38.44748456625202</v>
       </c>
       <c r="F24">
-        <v>61.78425197223416</v>
+        <v>74.15451726172785</v>
       </c>
       <c r="G24">
-        <v>50.85370290807827</v>
+        <v>60.92873675572206</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>59.87143380222238</v>
       </c>
       <c r="I24">
-        <v>23.99498058823652</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>27.36031493024559</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>94.47004094379736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>105.5366724818726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.809713755237616</v>
+        <v>9.204964929595469</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.399189215007873</v>
+        <v>11.5043260376619</v>
       </c>
       <c r="E25">
-        <v>29.73082421189269</v>
+        <v>38.44748456625202</v>
       </c>
       <c r="F25">
-        <v>49.56575831549748</v>
+        <v>74.15451726172785</v>
       </c>
       <c r="G25">
-        <v>40.98382579378826</v>
+        <v>60.92873675572206</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>59.87143380222238</v>
       </c>
       <c r="I25">
-        <v>20.46537757256143</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>27.36031493024559</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>81.9909342202445</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>105.5366724818726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.27726744978691</v>
+        <v>24.13208553552245</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.379557552125411</v>
+        <v>9.416221138813818</v>
       </c>
       <c r="E2">
-        <v>26.60154092168133</v>
+        <v>16.26126992362265</v>
       </c>
       <c r="F2">
-        <v>42.07435878018008</v>
+        <v>36.50774617087907</v>
       </c>
       <c r="G2">
-        <v>34.96535731626955</v>
+        <v>2.064961060049301</v>
       </c>
       <c r="H2">
-        <v>34.18987449477663</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.15315919021288</v>
+        <v>9.510401759214812</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.27738900950129</v>
       </c>
       <c r="M2">
-        <v>73.41766045275001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.33567818136906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.90778562800332</v>
+        <v>22.67386735612044</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.728070013951997</v>
+        <v>8.804797449736721</v>
       </c>
       <c r="E3">
-        <v>24.49074799919114</v>
+        <v>15.38426021217385</v>
       </c>
       <c r="F3">
-        <v>37.4446650662439</v>
+        <v>35.27052861961685</v>
       </c>
       <c r="G3">
-        <v>31.15592901971069</v>
+        <v>2.08082393954761</v>
       </c>
       <c r="H3">
-        <v>30.47457841278881</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.62358152316742</v>
+        <v>9.192506019704185</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.07430353231878</v>
       </c>
       <c r="M3">
-        <v>67.61584635201061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.11482134814121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.676548388899159</v>
+        <v>21.74636424290098</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.332057431132086</v>
+        <v>8.415415575148556</v>
       </c>
       <c r="E4">
-        <v>23.17432291709473</v>
+        <v>14.82671210713604</v>
       </c>
       <c r="F4">
-        <v>34.71444710715602</v>
+        <v>34.56810224242186</v>
       </c>
       <c r="G4">
-        <v>28.89379360498179</v>
+        <v>2.090707815003787</v>
       </c>
       <c r="H4">
-        <v>28.28169786320687</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.68084815577885</v>
+        <v>8.994168238057339</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.37254419932256</v>
       </c>
       <c r="M4">
-        <v>63.99099062548048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.40291772184749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581260235373001</v>
+        <v>21.36044361200076</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.170614296126295</v>
+        <v>8.253128360812257</v>
       </c>
       <c r="E5">
-        <v>22.63030030719763</v>
+        <v>14.59472207618579</v>
       </c>
       <c r="F5">
-        <v>33.62185720409192</v>
+        <v>34.29581512684535</v>
       </c>
       <c r="G5">
-        <v>27.98440371403987</v>
+        <v>2.094778047428038</v>
       </c>
       <c r="H5">
-        <v>27.40366961517366</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.29351509391685</v>
+        <v>8.912579380906358</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.0795571537403</v>
       </c>
       <c r="M5">
-        <v>62.49168204610219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.12214210662257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565375891112433</v>
+        <v>21.29588671483364</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.143777322050305</v>
+        <v>8.225960204087379</v>
       </c>
       <c r="E6">
-        <v>22.53945003887542</v>
+        <v>14.55591243168041</v>
       </c>
       <c r="F6">
-        <v>33.44145337809263</v>
+        <v>34.25143219698437</v>
       </c>
       <c r="G6">
-        <v>27.833993135739</v>
+        <v>2.095456642104364</v>
       </c>
       <c r="H6">
-        <v>27.25866473173089</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.22895343209201</v>
+        <v>8.898986471693657</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.03048446148328</v>
       </c>
       <c r="M6">
-        <v>62.24123000157636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.07607914781209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.675267493402219</v>
+        <v>21.74119156180338</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.32988160440948</v>
+        <v>8.413241645727473</v>
       </c>
       <c r="E7">
-        <v>23.1670194088171</v>
+        <v>14.82360273799545</v>
       </c>
       <c r="F7">
-        <v>34.69963991604116</v>
+        <v>34.5643741481087</v>
       </c>
       <c r="G7">
-        <v>28.88148629287141</v>
+        <v>2.090762527819257</v>
       </c>
       <c r="H7">
-        <v>28.26980041593217</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.67563977528456</v>
+        <v>8.993070952871033</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.36862122696668</v>
       </c>
       <c r="M7">
-        <v>63.9708673225842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.39909348322544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.150789745207183</v>
+        <v>23.63601632158147</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.153334181863088</v>
+        <v>9.208232560525358</v>
       </c>
       <c r="E8">
-        <v>25.87624811914845</v>
+        <v>15.96282387578249</v>
       </c>
       <c r="F8">
-        <v>40.44866993552493</v>
+        <v>36.06901309898065</v>
       </c>
       <c r="G8">
-        <v>33.6309451959533</v>
+        <v>2.070404686361255</v>
       </c>
       <c r="H8">
-        <v>32.88568241845519</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.62490180506997</v>
+        <v>9.401456837851862</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.86563726160692</v>
       </c>
       <c r="M8">
-        <v>71.42564881506563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.90679802455428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.049634744526314</v>
+        <v>27.09537066568283</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.877070131180865</v>
+        <v>10.66239901174404</v>
       </c>
       <c r="E9">
-        <v>31.20118279820527</v>
+        <v>18.04773768300069</v>
       </c>
       <c r="F9">
-        <v>53.24697325969344</v>
+        <v>39.49452958338948</v>
       </c>
       <c r="G9">
-        <v>44.06915287997724</v>
+        <v>2.031300616845519</v>
       </c>
       <c r="H9">
-        <v>43.14363646565123</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.58087873780524</v>
+        <v>10.17691668807004</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>19.70122912009654</v>
       </c>
       <c r="M9">
-        <v>86.00222756626573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.17245616999961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.798216851249812</v>
+        <v>29.5587049594434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.43516124418555</v>
+        <v>11.67779023732357</v>
       </c>
       <c r="E10">
-        <v>35.62324266869996</v>
+        <v>19.49544920491607</v>
       </c>
       <c r="F10">
-        <v>65.48190837653522</v>
+        <v>42.33566354083352</v>
       </c>
       <c r="G10">
-        <v>53.95378238523738</v>
+        <v>2.002534631352745</v>
       </c>
       <c r="H10">
-        <v>52.93559179495866</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>25.03888342949342</v>
+        <v>10.73200138323882</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>21.62334945446904</v>
       </c>
       <c r="M10">
-        <v>97.98373255602404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.78174477301229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.164067845236252</v>
+        <v>30.69499161376859</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.3810183742305</v>
+        <v>12.13150122345069</v>
       </c>
       <c r="E11">
-        <v>38.13038891522497</v>
+        <v>20.13848750056092</v>
       </c>
       <c r="F11">
-        <v>73.1445839809812</v>
+        <v>43.70923959151883</v>
       </c>
       <c r="G11">
-        <v>60.11749691819502</v>
+        <v>1.989291280696835</v>
       </c>
       <c r="H11">
-        <v>59.06389501046295</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.09442332459037</v>
+        <v>10.98197589751079</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>22.46703502585627</v>
       </c>
       <c r="M11">
-        <v>104.6938825456673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>37.02236346015805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.30736904965811</v>
+        <v>31.12006312241539</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.83691192728359</v>
+        <v>12.30248596767257</v>
       </c>
       <c r="E12">
-        <v>39.29162618208883</v>
+        <v>20.38007599062367</v>
       </c>
       <c r="F12">
-        <v>76.88990051713162</v>
+        <v>44.24225727505633</v>
       </c>
       <c r="G12">
-        <v>63.12483635391531</v>
+        <v>1.984238206032582</v>
       </c>
       <c r="H12">
-        <v>62.05849182431761</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>28.07530155464116</v>
+        <v>11.07635916574331</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>22.78253254848453</v>
       </c>
       <c r="M12">
-        <v>107.7725818018731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>37.50084703945573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.276085214088505</v>
+        <v>31.02873979176599</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.73124000492467</v>
+        <v>12.2656915754453</v>
       </c>
       <c r="E13">
-        <v>39.02517493969091</v>
+        <v>20.3281247671795</v>
       </c>
       <c r="F13">
-        <v>76.01903999794621</v>
+        <v>44.12686673248568</v>
       </c>
       <c r="G13">
-        <v>62.42583841578024</v>
+        <v>1.98532845111994</v>
       </c>
       <c r="H13">
-        <v>61.36222178401639</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>27.84846573915364</v>
+        <v>11.05604256720777</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>22.7147542370716</v>
       </c>
       <c r="M13">
-        <v>107.0680843401194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>37.39739164455655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.175697164118876</v>
+        <v>30.73006399061374</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.41560078785598</v>
+        <v>12.14558248077357</v>
       </c>
       <c r="E14">
-        <v>38.21954618735216</v>
+        <v>20.15839938941782</v>
       </c>
       <c r="F14">
-        <v>73.42758819913536</v>
+        <v>43.75282507782339</v>
       </c>
       <c r="G14">
-        <v>60.34484684377508</v>
+        <v>1.988876424694057</v>
       </c>
       <c r="H14">
-        <v>59.29018729207538</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27.16903969645327</v>
+        <v>10.989745781985</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>22.49306839835145</v>
       </c>
       <c r="M14">
-        <v>104.930999362129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>37.06154774122978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.115117410653562</v>
+        <v>30.54645281085336</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.23930676221406</v>
+        <v>12.07191649528628</v>
       </c>
       <c r="E15">
-        <v>37.76319961987068</v>
+        <v>20.05419912403488</v>
       </c>
       <c r="F15">
-        <v>71.98686694305293</v>
+        <v>43.52543219119897</v>
       </c>
       <c r="G15">
-        <v>59.18725289776299</v>
+        <v>1.99104418640636</v>
       </c>
       <c r="H15">
-        <v>58.13814844443424</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.78828446549983</v>
+        <v>10.94910426056055</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>22.35677405884907</v>
       </c>
       <c r="M15">
-        <v>103.7161267765662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.85699946341339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.774576240090273</v>
+        <v>29.48368842081733</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.38116586730523</v>
+        <v>11.64800262769922</v>
       </c>
       <c r="E16">
-        <v>35.47610446479291</v>
+        <v>19.45313771019099</v>
       </c>
       <c r="F16">
-        <v>65.04933063874229</v>
+        <v>42.24762525336605</v>
       </c>
       <c r="G16">
-        <v>53.60531089199132</v>
+        <v>2.003395693412796</v>
       </c>
       <c r="H16">
-        <v>52.58955311638145</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.92062735703887</v>
+        <v>10.71562068847688</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>21.5676296505741</v>
       </c>
       <c r="M16">
-        <v>97.58770154984319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.70182315194395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.567693838014081</v>
+        <v>28.82189699727052</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.934349540219525</v>
+        <v>11.38607327379626</v>
       </c>
       <c r="E17">
-        <v>34.24177459625202</v>
+        <v>19.08062637257098</v>
       </c>
       <c r="F17">
-        <v>61.49180248577607</v>
+        <v>41.48526819906625</v>
       </c>
       <c r="G17">
-        <v>50.73701814464736</v>
+        <v>2.01092252522968</v>
       </c>
       <c r="H17">
-        <v>49.74332337724859</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.93793792358105</v>
+        <v>10.5717887907174</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>21.07593324737788</v>
       </c>
       <c r="M17">
-        <v>94.25732012249793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.00749803492963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.448609053708847</v>
+        <v>28.44582784178492</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.694859727668298</v>
+        <v>11.23462180023981</v>
       </c>
       <c r="E18">
-        <v>33.56784209179669</v>
+        <v>18.86488186186347</v>
       </c>
       <c r="F18">
-        <v>59.60199243886314</v>
+        <v>41.05432740161051</v>
       </c>
       <c r="G18">
-        <v>49.21139562662641</v>
+        <v>2.015238013175588</v>
       </c>
       <c r="H18">
-        <v>48.2310455342203</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.40808151893596</v>
+        <v>10.48881465438989</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>20.79020372328396</v>
       </c>
       <c r="M18">
-        <v>92.43338007262092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.61311493989204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.408225755236606</v>
+        <v>28.32482935250904</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.616135468931306</v>
+        <v>11.18319660273278</v>
       </c>
       <c r="E19">
-        <v>33.34442188349021</v>
+        <v>18.79157102070256</v>
       </c>
       <c r="F19">
-        <v>58.98349569269213</v>
+        <v>40.90968297922471</v>
       </c>
       <c r="G19">
-        <v>48.7117692775696</v>
+        <v>2.01669722456553</v>
       </c>
       <c r="H19">
-        <v>47.73605458438371</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.23341016623195</v>
+        <v>10.46067666975149</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>20.69294752784468</v>
       </c>
       <c r="M19">
-        <v>91.82792110991113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.48041314603908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.589713751430592</v>
+        <v>28.89273119688252</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.97993073951586</v>
+        <v>11.41403624168829</v>
       </c>
       <c r="E20">
-        <v>34.36906422192273</v>
+        <v>19.12043259989562</v>
       </c>
       <c r="F20">
-        <v>61.85286001768643</v>
+        <v>41.56563366673637</v>
       </c>
       <c r="G20">
-        <v>51.02833500345284</v>
+        <v>2.010122806097739</v>
       </c>
       <c r="H20">
-        <v>50.03222500103763</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>24.03852968796253</v>
+        <v>10.58712485336869</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>21.12857440098814</v>
       </c>
       <c r="M20">
-        <v>94.6013974172137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.08088921953822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.204964929595469</v>
+        <v>30.81792963186608</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.5043260376619</v>
+        <v>12.18088062937931</v>
       </c>
       <c r="E21">
-        <v>38.44748456625202</v>
+        <v>20.20830086655619</v>
       </c>
       <c r="F21">
-        <v>74.15451726172785</v>
+        <v>43.86232938984699</v>
       </c>
       <c r="G21">
-        <v>60.92873675572206</v>
+        <v>1.98783547191631</v>
       </c>
       <c r="H21">
-        <v>59.87143380222238</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.36031493024559</v>
+        <v>11.00922538849975</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>22.55828734517716</v>
       </c>
       <c r="M21">
-        <v>105.5366724818726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>37.15994807887037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.204964929595469</v>
+        <v>32.04605227343622</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.5043260376619</v>
+        <v>12.67747110675407</v>
       </c>
       <c r="E22">
-        <v>38.44748456625202</v>
+        <v>20.90833409155582</v>
       </c>
       <c r="F22">
-        <v>74.15451726172785</v>
+        <v>45.43923090973247</v>
       </c>
       <c r="G22">
-        <v>60.92873675572206</v>
+        <v>1.973037671737937</v>
       </c>
       <c r="H22">
-        <v>59.87143380222238</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.36031493024559</v>
+        <v>11.28354736051187</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>23.4697017467931</v>
       </c>
       <c r="M22">
-        <v>105.5366724818726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>38.73010888598657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.204964929595469</v>
+        <v>31.39315265999162</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.5043260376619</v>
+        <v>12.41271227660767</v>
       </c>
       <c r="E23">
-        <v>38.44748456625202</v>
+        <v>20.53558545945736</v>
       </c>
       <c r="F23">
-        <v>74.15451726172785</v>
+        <v>44.5901692444907</v>
       </c>
       <c r="G23">
-        <v>60.92873675572206</v>
+        <v>1.980962717342605</v>
       </c>
       <c r="H23">
-        <v>59.87143380222238</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.36031493024559</v>
+        <v>11.13723938119638</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>22.98520346258986</v>
       </c>
       <c r="M23">
-        <v>105.5366724818726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.84870077528565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.204964929595469</v>
+        <v>28.86071931619669</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.5043260376619</v>
+        <v>11.40139690310668</v>
       </c>
       <c r="E24">
-        <v>38.44748456625202</v>
+        <v>19.10244115728435</v>
       </c>
       <c r="F24">
-        <v>74.15451726172785</v>
+        <v>41.52927763632044</v>
       </c>
       <c r="G24">
-        <v>60.92873675572206</v>
+        <v>2.010484394710062</v>
       </c>
       <c r="H24">
-        <v>59.87143380222238</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>27.36031493024559</v>
+        <v>10.58019230792138</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>21.10478485640846</v>
       </c>
       <c r="M24">
-        <v>105.5366724818726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.04769420295952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.204964929595469</v>
+        <v>26.18681791295311</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.5043260376619</v>
+        <v>10.27925076501442</v>
       </c>
       <c r="E25">
-        <v>38.44748456625202</v>
+        <v>17.49917293298514</v>
       </c>
       <c r="F25">
-        <v>74.15451726172785</v>
+        <v>38.5138015036213</v>
       </c>
       <c r="G25">
-        <v>60.92873675572206</v>
+        <v>2.041841800459931</v>
       </c>
       <c r="H25">
-        <v>59.87143380222238</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27.36031493024559</v>
+        <v>9.969838673369097</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.96371262911179</v>
       </c>
       <c r="M25">
-        <v>105.5366724818726</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.25417081060874</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.13208553552245</v>
+        <v>7.257852616031149</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.416221138813818</v>
+        <v>6.04281172455809</v>
       </c>
       <c r="E2">
-        <v>16.26126992362265</v>
+        <v>10.3753630843004</v>
       </c>
       <c r="F2">
-        <v>36.50774617087907</v>
+        <v>29.63964549923485</v>
       </c>
       <c r="G2">
-        <v>2.064961060049301</v>
+        <v>37.44500698609435</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.73240408431521</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.510401759214812</v>
+        <v>6.519291176553874</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.31470995029468</v>
       </c>
       <c r="L2">
-        <v>17.27738900950129</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.70522349745833</v>
       </c>
       <c r="O2">
-        <v>30.33567818136906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.67386735612044</v>
+        <v>6.898952254932938</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.804797449736721</v>
+        <v>5.779341696570181</v>
       </c>
       <c r="E3">
-        <v>15.38426021217385</v>
+        <v>9.939051581063291</v>
       </c>
       <c r="F3">
-        <v>35.27052861961685</v>
+        <v>28.70827061704562</v>
       </c>
       <c r="G3">
-        <v>2.08082393954761</v>
+        <v>36.0412996909297</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.60251261984831</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.192506019704185</v>
+        <v>6.399765486403266</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.06943896116938</v>
       </c>
       <c r="L3">
-        <v>16.07430353231878</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.95321756582871</v>
       </c>
       <c r="O3">
-        <v>29.11482134814121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.74636424290098</v>
+        <v>6.672301471022485</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.415415575148556</v>
+        <v>5.614028667355445</v>
       </c>
       <c r="E4">
-        <v>14.82671210713604</v>
+        <v>9.668330432166272</v>
       </c>
       <c r="F4">
-        <v>34.56810224242186</v>
+        <v>28.15182792350104</v>
       </c>
       <c r="G4">
-        <v>2.090707815003787</v>
+        <v>35.19724689170548</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.53251651139368</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.994168238057339</v>
+        <v>6.32956469779105</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.26255365791393</v>
       </c>
       <c r="L4">
-        <v>15.37254419932256</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.10822760692763</v>
       </c>
       <c r="O4">
-        <v>28.40291772184749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.36044361200076</v>
+        <v>6.578487282977638</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.253128360812257</v>
+        <v>5.545860064804488</v>
       </c>
       <c r="E5">
-        <v>14.59472207618579</v>
+        <v>9.557444703440353</v>
       </c>
       <c r="F5">
-        <v>34.29581512684535</v>
+        <v>27.92913789138943</v>
       </c>
       <c r="G5">
-        <v>2.094778047428038</v>
+        <v>34.85812178917403</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.50637213848621</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.912579380906358</v>
+        <v>6.301764559109535</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.92301488154809</v>
       </c>
       <c r="L5">
-        <v>15.0795571537403</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.17212529245186</v>
       </c>
       <c r="O5">
-        <v>28.12214210662257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.29588671483364</v>
+        <v>6.562825952895719</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.225960204087379</v>
+        <v>5.534495096300461</v>
       </c>
       <c r="E6">
-        <v>14.55591243168041</v>
+        <v>9.539002725206615</v>
       </c>
       <c r="F6">
-        <v>34.25143219698437</v>
+        <v>27.89241136496534</v>
       </c>
       <c r="G6">
-        <v>2.095456642104364</v>
+        <v>34.80211282732088</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.50217236855423</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.898986471693657</v>
+        <v>6.29719726090197</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.8659842441807</v>
       </c>
       <c r="L6">
-        <v>15.03048446148328</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.18278067751413</v>
       </c>
       <c r="O6">
-        <v>28.07607914781209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.74119156180338</v>
+        <v>6.671041955293794</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.413241645727473</v>
+        <v>5.613112443893304</v>
       </c>
       <c r="E7">
-        <v>14.82360273799545</v>
+        <v>9.666837068711985</v>
       </c>
       <c r="F7">
-        <v>34.5643741481087</v>
+        <v>28.14880794150059</v>
       </c>
       <c r="G7">
-        <v>2.090762527819257</v>
+        <v>35.19265328547647</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.5321543848974</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.993070952871033</v>
+        <v>6.329186500423116</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.25801807041688</v>
       </c>
       <c r="L7">
-        <v>15.36862122696668</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.1090863463656</v>
       </c>
       <c r="O7">
-        <v>28.39909348322544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.63601632158147</v>
+        <v>7.135478724242889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.208232560525358</v>
+        <v>5.95275135197326</v>
       </c>
       <c r="E8">
-        <v>15.96282387578249</v>
+        <v>10.22559036643273</v>
       </c>
       <c r="F8">
-        <v>36.06901309898065</v>
+        <v>29.31541582660436</v>
       </c>
       <c r="G8">
-        <v>2.070404686361255</v>
+        <v>36.95751071492311</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.68554884833122</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.401456837851862</v>
+        <v>6.47742049023813</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.89405811702826</v>
       </c>
       <c r="L8">
-        <v>16.86563726160692</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.79018832446019</v>
       </c>
       <c r="O8">
-        <v>29.90679802455428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09537066568283</v>
+        <v>7.99174954669988</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.66239901174404</v>
+        <v>6.587447637855893</v>
       </c>
       <c r="E9">
-        <v>18.04773768300069</v>
+        <v>11.29352309139354</v>
       </c>
       <c r="F9">
-        <v>39.49452958338948</v>
+        <v>31.71791533245959</v>
       </c>
       <c r="G9">
-        <v>2.031300616845519</v>
+        <v>40.54615593924765</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.06692359948682</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.17691668807004</v>
+        <v>6.793154962347156</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.77138114434446</v>
       </c>
       <c r="L9">
-        <v>19.70122912009654</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.18459255024289</v>
       </c>
       <c r="O9">
-        <v>33.17245616999961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.5587049594434</v>
+        <v>8.629846123997289</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.67779023732357</v>
+        <v>7.031195749970041</v>
       </c>
       <c r="E10">
-        <v>19.49544920491607</v>
+        <v>12.05548542667476</v>
       </c>
       <c r="F10">
-        <v>42.33566354083352</v>
+        <v>33.54439546503453</v>
       </c>
       <c r="G10">
-        <v>2.002534631352745</v>
+        <v>43.24578264049289</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.40037342547254</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.73200138323882</v>
+        <v>7.040120079057111</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.69041107626131</v>
       </c>
       <c r="L10">
-        <v>21.62334945446904</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.74870458278176</v>
       </c>
       <c r="O10">
-        <v>35.78174477301229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.69499161376859</v>
+        <v>8.941442814226809</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.13150122345069</v>
+        <v>7.227669345560667</v>
       </c>
       <c r="E11">
-        <v>20.13848750056092</v>
+        <v>12.39641282105363</v>
       </c>
       <c r="F11">
-        <v>43.70923959151883</v>
+        <v>34.38741429396985</v>
       </c>
       <c r="G11">
-        <v>1.989291280696835</v>
+        <v>44.48567060208875</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.56449078176782</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.98197589751079</v>
+        <v>7.155701028683533</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.52273276233448</v>
       </c>
       <c r="L11">
-        <v>22.46703502585627</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.55163532919965</v>
       </c>
       <c r="O11">
-        <v>37.02236346015805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.12006312241539</v>
+        <v>9.057034828029984</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.30248596767257</v>
+        <v>7.301265898921989</v>
       </c>
       <c r="E12">
-        <v>20.38007599062367</v>
+        <v>12.52465469950365</v>
       </c>
       <c r="F12">
-        <v>44.24225727505633</v>
+        <v>34.70833734611958</v>
       </c>
       <c r="G12">
-        <v>1.984238206032582</v>
+        <v>44.95681213771357</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.6284955559579</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.07635916574331</v>
+        <v>7.199934712273735</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.83221116468631</v>
       </c>
       <c r="L12">
-        <v>22.78253254848453</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.47711827951532</v>
       </c>
       <c r="O12">
-        <v>37.50084703945573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.02873979176599</v>
+        <v>9.032246365280528</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.2656915754453</v>
+        <v>7.285451663672996</v>
       </c>
       <c r="E13">
-        <v>20.3281247671795</v>
+        <v>12.49707421087022</v>
       </c>
       <c r="F13">
-        <v>44.12686673248568</v>
+        <v>34.63914606290619</v>
       </c>
       <c r="G13">
-        <v>1.98532845111994</v>
+        <v>44.85527157654816</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.6146272488756</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.05604256720777</v>
+        <v>7.190387436891524</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.76581073883236</v>
       </c>
       <c r="L13">
-        <v>22.7147542370716</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.49316314621319</v>
       </c>
       <c r="O13">
-        <v>37.39739164455655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.73006399061374</v>
+        <v>8.951000608344403</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.14558248077357</v>
+        <v>7.23374041593448</v>
       </c>
       <c r="E14">
-        <v>20.15839938941782</v>
+        <v>12.40698075862314</v>
       </c>
       <c r="F14">
-        <v>43.75282507782339</v>
+        <v>34.41378311376685</v>
       </c>
       <c r="G14">
-        <v>1.988876424694057</v>
+        <v>44.52439933266677</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.56971886542291</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.989745781985</v>
+        <v>7.1593308111121</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.54830719206521</v>
       </c>
       <c r="L14">
-        <v>22.49306839835145</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.54550298917469</v>
       </c>
       <c r="O14">
-        <v>37.06154774122978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.54645281085336</v>
+        <v>8.900923280889476</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.07191649528628</v>
+        <v>7.201960429121574</v>
       </c>
       <c r="E15">
-        <v>20.05419912403488</v>
+        <v>12.35168303889257</v>
       </c>
       <c r="F15">
-        <v>43.52543219119897</v>
+        <v>34.27596101030069</v>
       </c>
       <c r="G15">
-        <v>1.99104418640636</v>
+        <v>44.32194094769785</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.54245514516279</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.94910426056055</v>
+        <v>7.140368455637172</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.4143416123652</v>
       </c>
       <c r="L15">
-        <v>22.35677405884907</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.57757474461399</v>
       </c>
       <c r="O15">
-        <v>36.85699946341339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.48368842081733</v>
+        <v>8.609144525897669</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.64800262769922</v>
+        <v>7.018244605539113</v>
       </c>
       <c r="E16">
-        <v>19.45313771019099</v>
+        <v>12.0330864854923</v>
       </c>
       <c r="F16">
-        <v>42.24762525336605</v>
+        <v>33.48954075095943</v>
       </c>
       <c r="G16">
-        <v>2.003395693412796</v>
+        <v>43.16498252763325</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.38990399411951</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.71562068847688</v>
+        <v>7.032631649536353</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.63521073042708</v>
       </c>
       <c r="L16">
-        <v>21.5676296505741</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.76160250420992</v>
       </c>
       <c r="O16">
-        <v>35.70182315194395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.82189699727052</v>
+        <v>8.425833219427108</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.38607327379626</v>
+        <v>6.904136905482372</v>
       </c>
       <c r="E17">
-        <v>19.08062637257098</v>
+        <v>11.83614410187039</v>
       </c>
       <c r="F17">
-        <v>41.48526819906625</v>
+        <v>33.01015386620219</v>
       </c>
       <c r="G17">
-        <v>2.01092252522968</v>
+        <v>42.45817371119546</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.29955126863769</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.5717887907174</v>
+        <v>6.967366436993467</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.14692428907929</v>
       </c>
       <c r="L17">
-        <v>21.07593324737788</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.87476431711978</v>
       </c>
       <c r="O17">
-        <v>35.00749803492963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44582784178492</v>
+        <v>8.32613950369209</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.23462180023981</v>
+        <v>6.837998946380945</v>
       </c>
       <c r="E18">
-        <v>18.86488186186347</v>
+        <v>11.72233340842912</v>
       </c>
       <c r="F18">
-        <v>41.05432740161051</v>
+        <v>32.73556701634406</v>
       </c>
       <c r="G18">
-        <v>2.015238013175588</v>
+        <v>42.05274792723087</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.24874844327756</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.48881465438989</v>
+        <v>6.93013191072534</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.86223907014416</v>
       </c>
       <c r="L18">
-        <v>20.79020372328396</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.93997100478558</v>
       </c>
       <c r="O18">
-        <v>34.61311493989204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32482935250904</v>
+        <v>8.296215766459417</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.18319660273278</v>
+        <v>6.815519861402289</v>
       </c>
       <c r="E19">
-        <v>18.79157102070256</v>
+        <v>11.68370881559386</v>
       </c>
       <c r="F19">
-        <v>40.90968297922471</v>
+        <v>32.6427955105264</v>
       </c>
       <c r="G19">
-        <v>2.01669722456553</v>
+        <v>41.91567226868872</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.23174559302287</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.46067666975149</v>
+        <v>6.917577248429215</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.7651865949921</v>
       </c>
       <c r="L19">
-        <v>20.69294752784468</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.96207123101002</v>
       </c>
       <c r="O19">
-        <v>34.48041314603908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.89273119688252</v>
+        <v>8.445511950021203</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.41403624168829</v>
+        <v>6.916336496834736</v>
       </c>
       <c r="E20">
-        <v>19.12043259989562</v>
+        <v>11.8571646494074</v>
       </c>
       <c r="F20">
-        <v>41.56563366673637</v>
+        <v>33.06106758784351</v>
       </c>
       <c r="G20">
-        <v>2.010122806097739</v>
+        <v>42.53330042911719</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.30904832969948</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.58712485336869</v>
+        <v>6.974282545101793</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.1992992071089</v>
       </c>
       <c r="L20">
-        <v>21.12857440098814</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.86270619347845</v>
       </c>
       <c r="O20">
-        <v>35.08088921953822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.81792963186608</v>
+        <v>8.974929408826227</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.18088062937931</v>
+        <v>7.248951256217646</v>
       </c>
       <c r="E21">
-        <v>20.20830086655619</v>
+        <v>12.43346695950576</v>
       </c>
       <c r="F21">
-        <v>43.86232938984699</v>
+        <v>34.47993202707818</v>
       </c>
       <c r="G21">
-        <v>1.98783547191631</v>
+        <v>44.62154070534432</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.58285857656236</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.00922538849975</v>
+        <v>7.168440233621978</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.61234686259937</v>
       </c>
       <c r="L21">
-        <v>22.55828734517716</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.53012711656917</v>
       </c>
       <c r="O21">
-        <v>37.15994807887037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.04605227343622</v>
+        <v>9.306944240338561</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.67747110675407</v>
+        <v>7.461642967172975</v>
       </c>
       <c r="E22">
-        <v>20.90833409155582</v>
+        <v>12.80509618089517</v>
       </c>
       <c r="F22">
-        <v>45.43923090973247</v>
+        <v>35.41710071454809</v>
       </c>
       <c r="G22">
-        <v>1.973037671737937</v>
+        <v>45.99580723037119</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.77266859278211</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.28354736051187</v>
+        <v>7.2980510326681</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.50268396263057</v>
       </c>
       <c r="L22">
-        <v>23.4697017467931</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.31336609155894</v>
       </c>
       <c r="O22">
-        <v>38.73010888598657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.39315265999162</v>
+        <v>9.131010851296915</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.41271227660767</v>
+        <v>7.348561620283295</v>
       </c>
       <c r="E23">
-        <v>20.53558545945736</v>
+        <v>12.60721836533451</v>
       </c>
       <c r="F23">
-        <v>44.5901692444907</v>
+        <v>34.91602055171273</v>
       </c>
       <c r="G23">
-        <v>1.980962717342605</v>
+        <v>45.26147241026241</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.67034598403396</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.13723938119638</v>
+        <v>7.228625461843825</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.03047935326149</v>
       </c>
       <c r="L23">
-        <v>22.98520346258986</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.42902439352119</v>
       </c>
       <c r="O23">
-        <v>37.84870077528565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.86071931619669</v>
+        <v>8.436620317410657</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.40139690310668</v>
+        <v>6.91082272857065</v>
       </c>
       <c r="E24">
-        <v>19.10244115728435</v>
+        <v>11.84766308142602</v>
       </c>
       <c r="F24">
-        <v>41.52927763632044</v>
+        <v>33.03804631528395</v>
       </c>
       <c r="G24">
-        <v>2.010484394710062</v>
+        <v>42.4993327425812</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.30475115605606</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.58019230792138</v>
+        <v>6.971154877685039</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.17563286064684</v>
       </c>
       <c r="L24">
-        <v>21.10478485640846</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.86815720383637</v>
       </c>
       <c r="O24">
-        <v>35.04769420295952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18681791295311</v>
+        <v>7.766510576776052</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.27925076501442</v>
+        <v>6.419502019665288</v>
       </c>
       <c r="E25">
-        <v>17.49917293298514</v>
+        <v>11.00826023879614</v>
       </c>
       <c r="F25">
-        <v>38.5138015036213</v>
+        <v>31.05666828152754</v>
       </c>
       <c r="G25">
-        <v>2.041841800459931</v>
+        <v>39.56338384380672</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.95469059444916</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.969838673369097</v>
+        <v>6.705090581563682</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.02774426351863</v>
       </c>
       <c r="L25">
-        <v>18.96371262911179</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.34660199222662</v>
       </c>
       <c r="O25">
-        <v>32.25417081060874</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.257852616031149</v>
+        <v>7.812326845052874</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.04281172455809</v>
+        <v>8.153630033653448</v>
       </c>
       <c r="E2">
-        <v>10.3753630843004</v>
+        <v>13.25215081241025</v>
       </c>
       <c r="F2">
-        <v>29.63964549923485</v>
+        <v>37.72950447095415</v>
       </c>
       <c r="G2">
-        <v>37.44500698609435</v>
+        <v>43.07830343207233</v>
       </c>
       <c r="H2">
-        <v>11.73240408431521</v>
+        <v>17.66256062012796</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.519291176553874</v>
+        <v>10.0955432465944</v>
       </c>
       <c r="K2">
-        <v>18.31470995029468</v>
+        <v>14.73382815716467</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.70522349745833</v>
+        <v>19.46770963653784</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.898952254932938</v>
+        <v>7.741325745014461</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.779341696570181</v>
+        <v>8.121171058301368</v>
       </c>
       <c r="E3">
-        <v>9.939051581063291</v>
+        <v>13.2045482296512</v>
       </c>
       <c r="F3">
-        <v>28.70827061704562</v>
+        <v>37.68549111550069</v>
       </c>
       <c r="G3">
-        <v>36.0412996909297</v>
+        <v>42.95113738155442</v>
       </c>
       <c r="H3">
-        <v>11.60251261984831</v>
+        <v>17.696518927952</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.399765486403266</v>
+        <v>10.10302830563148</v>
       </c>
       <c r="K3">
-        <v>17.06943896116938</v>
+        <v>14.40340377692292</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.95321756582871</v>
+        <v>19.53797876002085</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672301471022485</v>
+        <v>7.699263296378494</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.614028667355445</v>
+        <v>8.102459414656478</v>
       </c>
       <c r="E4">
-        <v>9.668330432166272</v>
+        <v>13.17805137071585</v>
       </c>
       <c r="F4">
-        <v>28.15182792350104</v>
+        <v>37.66876990377961</v>
       </c>
       <c r="G4">
-        <v>35.19724689170548</v>
+        <v>42.88717265147123</v>
       </c>
       <c r="H4">
-        <v>11.53251651139368</v>
+        <v>17.72103222835331</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.32956469779105</v>
+        <v>10.10934057483708</v>
       </c>
       <c r="K4">
-        <v>16.26255365791393</v>
+        <v>14.19989791276226</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.10822760692763</v>
+        <v>19.58307156400298</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578487282977638</v>
+        <v>7.682526771676789</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.545860064804488</v>
+        <v>8.09514587106082</v>
       </c>
       <c r="E5">
-        <v>9.557444703440353</v>
+        <v>13.1679479600762</v>
       </c>
       <c r="F5">
-        <v>27.92913789138943</v>
+        <v>37.66454846781727</v>
       </c>
       <c r="G5">
-        <v>34.85812178917403</v>
+        <v>42.86466852709383</v>
       </c>
       <c r="H5">
-        <v>11.50637213848621</v>
+        <v>17.73194042917924</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.301764559109535</v>
+        <v>10.11234443379036</v>
       </c>
       <c r="K5">
-        <v>15.92301488154809</v>
+        <v>14.11693451764509</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.17212529245186</v>
+        <v>19.60193855896523</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562825952895719</v>
+        <v>7.679772638576911</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.534495096300461</v>
+        <v>8.093950429609306</v>
       </c>
       <c r="E6">
-        <v>9.539002725206615</v>
+        <v>13.16631243118732</v>
       </c>
       <c r="F6">
-        <v>27.89241136496534</v>
+        <v>37.66400409513754</v>
       </c>
       <c r="G6">
-        <v>34.80211282732088</v>
+        <v>42.86114714188293</v>
       </c>
       <c r="H6">
-        <v>11.50217236855423</v>
+        <v>17.73380715491813</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.29719726090197</v>
+        <v>10.11286928358157</v>
       </c>
       <c r="K6">
-        <v>15.8659842441807</v>
+        <v>14.10316019708641</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.18278067751413</v>
+        <v>19.60510113163344</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671041955293794</v>
+        <v>7.699035920484351</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.613112443893304</v>
+        <v>8.102359513287801</v>
       </c>
       <c r="E7">
-        <v>9.666837068711985</v>
+        <v>13.17791229222871</v>
       </c>
       <c r="F7">
-        <v>28.14880794150059</v>
+        <v>37.6687024741587</v>
       </c>
       <c r="G7">
-        <v>35.19265328547647</v>
+        <v>42.88685471771691</v>
       </c>
       <c r="H7">
-        <v>11.5321543848974</v>
+        <v>17.72117562294613</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.329186500423116</v>
+        <v>10.10937933872252</v>
       </c>
       <c r="K7">
-        <v>16.25801807041688</v>
+        <v>14.19877900726222</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.1090863463656</v>
+        <v>19.58332401942838</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.135478724242889</v>
+        <v>7.787539156245078</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.95275135197326</v>
+        <v>8.14218857075919</v>
       </c>
       <c r="E8">
-        <v>10.22559036643273</v>
+        <v>13.23517527128372</v>
       </c>
       <c r="F8">
-        <v>29.31541582660436</v>
+        <v>37.71219198222902</v>
       </c>
       <c r="G8">
-        <v>36.95751071492311</v>
+        <v>43.03153581922303</v>
       </c>
       <c r="H8">
-        <v>11.68554884833122</v>
+        <v>17.67350796742829</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.47742049023813</v>
+        <v>10.09776785727069</v>
       </c>
       <c r="K8">
-        <v>17.89405811702826</v>
+        <v>14.62010042324182</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.79018832446019</v>
+        <v>19.49153527237102</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.99174954669988</v>
+        <v>7.972389438921705</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.587447637855893</v>
+        <v>8.229715036511925</v>
       </c>
       <c r="E9">
-        <v>11.29352309139354</v>
+        <v>13.36877658529951</v>
       </c>
       <c r="F9">
-        <v>31.71791533245959</v>
+        <v>37.87904964918308</v>
       </c>
       <c r="G9">
-        <v>40.54615593924765</v>
+        <v>43.42648358390441</v>
       </c>
       <c r="H9">
-        <v>12.06692359948682</v>
+        <v>17.60918624373828</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.793154962347156</v>
+        <v>10.08861529709966</v>
       </c>
       <c r="K9">
-        <v>20.77138114434446</v>
+        <v>15.43613163543179</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.18459255024289</v>
+        <v>19.32691190180327</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.629846123997289</v>
+        <v>8.113889286877505</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.031195749970041</v>
+        <v>8.299417135780441</v>
       </c>
       <c r="E10">
-        <v>12.05548542667476</v>
+        <v>13.47938857571292</v>
       </c>
       <c r="F10">
-        <v>33.54439546503453</v>
+        <v>38.05099102587152</v>
       </c>
       <c r="G10">
-        <v>43.24578264049289</v>
+        <v>43.7831044148108</v>
       </c>
       <c r="H10">
-        <v>12.40037342547254</v>
+        <v>17.57981870583207</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.040120079057111</v>
+        <v>10.09018522498903</v>
       </c>
       <c r="K10">
-        <v>22.69041107626131</v>
+        <v>16.02282386482859</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.74870458278176</v>
+        <v>19.21522635172461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.941442814226809</v>
+        <v>8.179235102325572</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.227669345560667</v>
+        <v>8.332218271811339</v>
       </c>
       <c r="E11">
-        <v>12.39641282105363</v>
+        <v>13.53228433472409</v>
       </c>
       <c r="F11">
-        <v>34.38741429396985</v>
+        <v>38.13979827202828</v>
       </c>
       <c r="G11">
-        <v>44.48567060208875</v>
+        <v>43.95938337660627</v>
       </c>
       <c r="H11">
-        <v>12.56449078176782</v>
+        <v>17.57036397490628</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.155701028683533</v>
+        <v>10.09269633633719</v>
       </c>
       <c r="K11">
-        <v>23.52273276233448</v>
+        <v>16.2856495239298</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.55163532919965</v>
+        <v>19.16640573491161</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.057034828029984</v>
+        <v>8.204098171146255</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.301265898921989</v>
+        <v>8.344789258705417</v>
       </c>
       <c r="E12">
-        <v>12.52465469950365</v>
+        <v>13.55267332941566</v>
       </c>
       <c r="F12">
-        <v>34.70833734611958</v>
+        <v>38.17493533109441</v>
       </c>
       <c r="G12">
-        <v>44.95681213771357</v>
+        <v>44.02811653538745</v>
       </c>
       <c r="H12">
-        <v>12.6284955559579</v>
+        <v>17.56734650115915</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.199934712273735</v>
+        <v>10.09390501255954</v>
       </c>
       <c r="K12">
-        <v>23.83221116468631</v>
+        <v>16.38449216429364</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.47711827951532</v>
+        <v>19.14820243424348</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.032246365280528</v>
+        <v>8.198738571972306</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.285451663672996</v>
+        <v>8.342075323237715</v>
       </c>
       <c r="E13">
-        <v>12.49707421087022</v>
+        <v>13.54826644946326</v>
       </c>
       <c r="F13">
-        <v>34.63914606290619</v>
+        <v>38.16730114825337</v>
       </c>
       <c r="G13">
-        <v>44.85527157654816</v>
+        <v>44.01322623815515</v>
       </c>
       <c r="H13">
-        <v>12.6146272488756</v>
+        <v>17.56797131748197</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.190387436891524</v>
+        <v>10.0936332494456</v>
       </c>
       <c r="K13">
-        <v>23.76581073883236</v>
+        <v>16.3632365509555</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.49316314621319</v>
+        <v>19.15211023375522</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.951000608344403</v>
+        <v>8.181278364918438</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.23374041593448</v>
+        <v>8.333249532721748</v>
       </c>
       <c r="E14">
-        <v>12.40698075862314</v>
+        <v>13.53395463615457</v>
       </c>
       <c r="F14">
-        <v>34.41378311376685</v>
+        <v>38.14265889794289</v>
       </c>
       <c r="G14">
-        <v>44.52439933266677</v>
+        <v>43.96499865552145</v>
       </c>
       <c r="H14">
-        <v>12.56971886542291</v>
+        <v>17.5701044388255</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.1593308111121</v>
+        <v>10.0927906127868</v>
       </c>
       <c r="K14">
-        <v>23.54830719206521</v>
+        <v>16.29379561505328</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.54550298917469</v>
+        <v>19.16490245523348</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.900923280889476</v>
+        <v>8.170598189120588</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.201960429121574</v>
+        <v>8.327862783031323</v>
       </c>
       <c r="E15">
-        <v>12.35168303889257</v>
+        <v>13.5252345556316</v>
       </c>
       <c r="F15">
-        <v>34.27596101030069</v>
+        <v>38.12776066304978</v>
       </c>
       <c r="G15">
-        <v>44.32194094769785</v>
+        <v>43.93571447457939</v>
       </c>
       <c r="H15">
-        <v>12.54245514516279</v>
+        <v>17.57148436955885</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.140368455637172</v>
+        <v>10.09230802217951</v>
       </c>
       <c r="K15">
-        <v>23.4143416123652</v>
+        <v>16.25116916335034</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.57757474461399</v>
+        <v>19.17277500103337</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.609144525897669</v>
+        <v>8.109636521809172</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.018244605539113</v>
+        <v>8.29729488501798</v>
       </c>
       <c r="E16">
-        <v>12.0330864854923</v>
+        <v>13.47598255939855</v>
       </c>
       <c r="F16">
-        <v>33.48954075095943</v>
+        <v>38.04539912114563</v>
       </c>
       <c r="G16">
-        <v>43.16498252763325</v>
+        <v>43.77186355210974</v>
       </c>
       <c r="H16">
-        <v>12.38990399411951</v>
+        <v>17.58051528703654</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.032631649536353</v>
+        <v>10.09005722679356</v>
       </c>
       <c r="K16">
-        <v>22.63521073042708</v>
+        <v>16.00555716536428</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.76160250420992</v>
+        <v>19.21845671987217</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.425833219427108</v>
+        <v>8.07247273567604</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.904136905482372</v>
+        <v>8.278817365006402</v>
       </c>
       <c r="E17">
-        <v>11.83614410187039</v>
+        <v>13.44641983220757</v>
       </c>
       <c r="F17">
-        <v>33.01015386620219</v>
+        <v>37.99757533169399</v>
       </c>
       <c r="G17">
-        <v>42.45817371119546</v>
+        <v>43.6749176408724</v>
       </c>
       <c r="H17">
-        <v>12.29955126863769</v>
+        <v>17.58705657753766</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.967366436993467</v>
+        <v>10.08913627656966</v>
       </c>
       <c r="K17">
-        <v>22.14692428907929</v>
+        <v>15.85376846337588</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.87476431711978</v>
+        <v>19.24698846582279</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.32613950369209</v>
+        <v>8.051190398380761</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.837998946380945</v>
+        <v>8.268292943532629</v>
       </c>
       <c r="E18">
-        <v>11.72233340842912</v>
+        <v>13.42965953768969</v>
       </c>
       <c r="F18">
-        <v>32.73556701634406</v>
+        <v>37.97106621418268</v>
       </c>
       <c r="G18">
-        <v>42.05274792723087</v>
+        <v>43.62048209059417</v>
       </c>
       <c r="H18">
-        <v>12.24874844327756</v>
+        <v>17.59118641940455</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.93013191072534</v>
+        <v>10.08877575345796</v>
       </c>
       <c r="K18">
-        <v>21.86223907014416</v>
+        <v>15.76608664171767</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.93997100478558</v>
+        <v>19.26358616594306</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.296215766459417</v>
+        <v>8.044001271080164</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.815519861402289</v>
+        <v>8.264747526184216</v>
       </c>
       <c r="E19">
-        <v>11.68370881559386</v>
+        <v>13.42402695555536</v>
       </c>
       <c r="F19">
-        <v>32.6427955105264</v>
+        <v>37.96226249103609</v>
       </c>
       <c r="G19">
-        <v>41.91567226868872</v>
+        <v>43.60227990656495</v>
       </c>
       <c r="H19">
-        <v>12.23174559302287</v>
+        <v>17.59264778078346</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.917577248429215</v>
+        <v>10.08868276064853</v>
       </c>
       <c r="K19">
-        <v>21.7651865949921</v>
+        <v>15.7363374798088</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.96207123101002</v>
+        <v>19.26923802542567</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.445511950021203</v>
+        <v>8.076419391654541</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.916336496834736</v>
+        <v>8.280773683469295</v>
       </c>
       <c r="E20">
-        <v>11.8571646494074</v>
+        <v>13.44954172977879</v>
       </c>
       <c r="F20">
-        <v>33.06106758784351</v>
+        <v>38.00256308340382</v>
       </c>
       <c r="G20">
-        <v>42.53330042911719</v>
+        <v>43.68510082642609</v>
       </c>
       <c r="H20">
-        <v>12.30904832969948</v>
+        <v>17.58632220431215</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.974282545101793</v>
+        <v>10.08921680756028</v>
       </c>
       <c r="K20">
-        <v>22.1992992071089</v>
+        <v>15.86996638732061</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86270619347845</v>
+        <v>19.24393187064333</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.974929408826227</v>
+        <v>8.186403826394494</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.248951256217646</v>
+        <v>8.335837872198438</v>
       </c>
       <c r="E21">
-        <v>12.43346695950576</v>
+        <v>13.53814873248232</v>
       </c>
       <c r="F21">
-        <v>34.47993202707818</v>
+        <v>38.14985613848852</v>
       </c>
       <c r="G21">
-        <v>44.62154070534432</v>
+        <v>43.97911086681921</v>
       </c>
       <c r="H21">
-        <v>12.58285857656236</v>
+        <v>17.56946260494004</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.168440233621978</v>
+        <v>10.09303112539865</v>
       </c>
       <c r="K21">
-        <v>23.61234686259937</v>
+        <v>16.31421141513882</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.53012711656917</v>
+        <v>19.16113737399492</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.306944240338561</v>
+        <v>8.258962608390272</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.461642967172975</v>
+        <v>8.372695743654363</v>
       </c>
       <c r="E22">
-        <v>12.80509618089517</v>
+        <v>13.59814219848486</v>
       </c>
       <c r="F22">
-        <v>35.41710071454809</v>
+        <v>38.25489994478861</v>
       </c>
       <c r="G22">
-        <v>45.99580723037119</v>
+        <v>44.18278363497204</v>
       </c>
       <c r="H22">
-        <v>12.77266859278211</v>
+        <v>17.56172492177231</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.2980510326681</v>
+        <v>10.09702611065866</v>
       </c>
       <c r="K22">
-        <v>24.50268396263057</v>
+        <v>16.60052472238505</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.31336609155894</v>
+        <v>19.10868109143755</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.131010851296915</v>
+        <v>8.220182017827755</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.348561620283295</v>
+        <v>8.352946847058368</v>
       </c>
       <c r="E23">
-        <v>12.60721836533451</v>
+        <v>13.56593607229402</v>
       </c>
       <c r="F23">
-        <v>34.91602055171273</v>
+        <v>38.19803838873317</v>
       </c>
       <c r="G23">
-        <v>45.26147241026241</v>
+        <v>44.07303991801319</v>
       </c>
       <c r="H23">
-        <v>12.67034598403396</v>
+        <v>17.56555407460506</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.228625461843825</v>
+        <v>10.09475671178812</v>
       </c>
       <c r="K23">
-        <v>24.03047935326149</v>
+        <v>16.44811338322625</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.42902439352119</v>
+        <v>19.13652709525542</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.436620317410657</v>
+        <v>8.074634846324033</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.91082272857065</v>
+        <v>8.279888924378996</v>
       </c>
       <c r="E24">
-        <v>11.84766308142602</v>
+        <v>13.44812958477551</v>
       </c>
       <c r="F24">
-        <v>33.03804631528395</v>
+        <v>38.00030505008139</v>
       </c>
       <c r="G24">
-        <v>42.4993327425812</v>
+        <v>43.6804929558165</v>
       </c>
       <c r="H24">
-        <v>12.30475115605606</v>
+        <v>17.58665306453129</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.971154877685039</v>
+        <v>10.08917987320819</v>
       </c>
       <c r="K24">
-        <v>22.17563286064684</v>
+        <v>15.86264459545089</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.86815720383637</v>
+        <v>19.24531315155215</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.766510576776052</v>
+        <v>7.921295072340547</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.419502019665288</v>
+        <v>8.205062806834363</v>
       </c>
       <c r="E25">
-        <v>11.00826023879614</v>
+        <v>13.33040495088877</v>
       </c>
       <c r="F25">
-        <v>31.05666828152754</v>
+        <v>37.82520686993696</v>
       </c>
       <c r="G25">
-        <v>39.56338384380672</v>
+        <v>43.30785305699841</v>
       </c>
       <c r="H25">
-        <v>11.95469059444916</v>
+        <v>17.62345295597995</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.705090581563682</v>
+        <v>10.08963368852625</v>
       </c>
       <c r="K25">
-        <v>20.02774426351863</v>
+        <v>15.21717127514022</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.34660199222662</v>
+        <v>19.36981230883078</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.812326845052874</v>
+        <v>7.257852616031142</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.153630033653448</v>
+        <v>6.042811724558121</v>
       </c>
       <c r="E2">
-        <v>13.25215081241025</v>
+        <v>10.37536308430041</v>
       </c>
       <c r="F2">
-        <v>37.72950447095415</v>
+        <v>29.63964549923486</v>
       </c>
       <c r="G2">
-        <v>43.07830343207233</v>
+        <v>37.44500698609436</v>
       </c>
       <c r="H2">
-        <v>17.66256062012796</v>
+        <v>11.73240408431521</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.0955432465944</v>
+        <v>6.519291176553878</v>
       </c>
       <c r="K2">
-        <v>14.73382815716467</v>
+        <v>18.31470995029471</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.46770963653784</v>
+        <v>12.7052234974583</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.741325745014461</v>
+        <v>6.898952254932951</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.121171058301368</v>
+        <v>5.779341696570139</v>
       </c>
       <c r="E3">
-        <v>13.2045482296512</v>
+        <v>9.939051581063294</v>
       </c>
       <c r="F3">
-        <v>37.68549111550069</v>
+        <v>28.70827061704557</v>
       </c>
       <c r="G3">
-        <v>42.95113738155442</v>
+        <v>36.0412996909297</v>
       </c>
       <c r="H3">
-        <v>17.696518927952</v>
+        <v>11.60251261984827</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.10302830563148</v>
+        <v>6.399765486403288</v>
       </c>
       <c r="K3">
-        <v>14.40340377692292</v>
+        <v>17.0694389611694</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.53797876002085</v>
+        <v>12.95321756582868</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.699263296378494</v>
+        <v>6.672301471022496</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.102459414656478</v>
+        <v>5.614028667355453</v>
       </c>
       <c r="E4">
-        <v>13.17805137071585</v>
+        <v>9.668330432166265</v>
       </c>
       <c r="F4">
-        <v>37.66876990377961</v>
+        <v>28.15182792350104</v>
       </c>
       <c r="G4">
-        <v>42.88717265147123</v>
+        <v>35.1972468917055</v>
       </c>
       <c r="H4">
-        <v>17.72103222835331</v>
+        <v>11.53251651139368</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.10934057483708</v>
+        <v>6.329564697791044</v>
       </c>
       <c r="K4">
-        <v>14.19989791276226</v>
+        <v>16.26255365791395</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.58307156400298</v>
+        <v>13.10822760692766</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.682526771676789</v>
+        <v>6.57848728297763</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.09514587106082</v>
+        <v>5.545860064804453</v>
       </c>
       <c r="E5">
-        <v>13.1679479600762</v>
+        <v>9.557444703440275</v>
       </c>
       <c r="F5">
-        <v>37.66454846781727</v>
+        <v>27.92913789138943</v>
       </c>
       <c r="G5">
-        <v>42.86466852709383</v>
+        <v>34.85812178917417</v>
       </c>
       <c r="H5">
-        <v>17.73194042917924</v>
+        <v>11.5063721384862</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.11234443379036</v>
+        <v>6.301764559109533</v>
       </c>
       <c r="K5">
-        <v>14.11693451764509</v>
+        <v>15.92301488154803</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.60193855896523</v>
+        <v>13.17212529245186</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.679772638576911</v>
+        <v>6.562825952895645</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.093950429609306</v>
+        <v>5.53449509630037</v>
       </c>
       <c r="E6">
-        <v>13.16631243118732</v>
+        <v>9.539002725206574</v>
       </c>
       <c r="F6">
-        <v>37.66400409513754</v>
+        <v>27.8924113649652</v>
       </c>
       <c r="G6">
-        <v>42.86114714188293</v>
+        <v>34.80211282732071</v>
       </c>
       <c r="H6">
-        <v>17.73380715491813</v>
+        <v>11.50217236855413</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.11286928358157</v>
+        <v>6.297197260901968</v>
       </c>
       <c r="K6">
-        <v>14.10316019708641</v>
+        <v>15.86598424418075</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.60510113163344</v>
+        <v>13.1827806775141</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.699035920484351</v>
+        <v>6.671041955293809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.102359513287801</v>
+        <v>5.613112443893244</v>
       </c>
       <c r="E7">
-        <v>13.17791229222871</v>
+        <v>9.666837068711926</v>
       </c>
       <c r="F7">
-        <v>37.6687024741587</v>
+        <v>28.14880794150055</v>
       </c>
       <c r="G7">
-        <v>42.88685471771691</v>
+        <v>35.19265328547647</v>
       </c>
       <c r="H7">
-        <v>17.72117562294613</v>
+        <v>11.5321543848974</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.10937933872252</v>
+        <v>6.329186500423072</v>
       </c>
       <c r="K7">
-        <v>14.19877900726222</v>
+        <v>16.25801807041688</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.58332401942838</v>
+        <v>13.1090863463656</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.787539156245078</v>
+        <v>7.135478724242879</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.14218857075919</v>
+        <v>5.952751351973071</v>
       </c>
       <c r="E8">
-        <v>13.23517527128372</v>
+        <v>10.22559036643262</v>
       </c>
       <c r="F8">
-        <v>37.71219198222902</v>
+        <v>29.31541582660416</v>
       </c>
       <c r="G8">
-        <v>43.03153581922303</v>
+        <v>36.95751071492294</v>
       </c>
       <c r="H8">
-        <v>17.67350796742829</v>
+        <v>11.68554884833117</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.09776785727069</v>
+        <v>6.477420490238068</v>
       </c>
       <c r="K8">
-        <v>14.62010042324182</v>
+        <v>17.89405811702833</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.49153527237102</v>
+        <v>12.79018832446003</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.972389438921705</v>
+        <v>7.991749546699885</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.229715036511925</v>
+        <v>6.587447637855867</v>
       </c>
       <c r="E9">
-        <v>13.36877658529951</v>
+        <v>11.29352309139355</v>
       </c>
       <c r="F9">
-        <v>37.87904964918308</v>
+        <v>31.71791533245956</v>
       </c>
       <c r="G9">
-        <v>43.42648358390441</v>
+        <v>40.54615593924765</v>
       </c>
       <c r="H9">
-        <v>17.60918624373828</v>
+        <v>12.06692359948683</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.08861529709966</v>
+        <v>6.793154962347223</v>
       </c>
       <c r="K9">
-        <v>15.43613163543179</v>
+        <v>20.7713811443445</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.32691190180327</v>
+        <v>12.18459255024289</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.113889286877505</v>
+        <v>8.62984612399721</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.299417135780441</v>
+        <v>7.031195749969974</v>
       </c>
       <c r="E10">
-        <v>13.47938857571292</v>
+        <v>12.05548542667478</v>
       </c>
       <c r="F10">
-        <v>38.05099102587152</v>
+        <v>33.54439546503453</v>
       </c>
       <c r="G10">
-        <v>43.7831044148108</v>
+        <v>43.24578264049293</v>
       </c>
       <c r="H10">
-        <v>17.57981870583207</v>
+        <v>12.40037342547255</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.09018522498903</v>
+        <v>7.040120079057119</v>
       </c>
       <c r="K10">
-        <v>16.02282386482859</v>
+        <v>22.69041107626134</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.21522635172461</v>
+        <v>11.74870458278172</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.179235102325572</v>
+        <v>8.9414428142268</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.332218271811339</v>
+        <v>7.227669345560707</v>
       </c>
       <c r="E11">
-        <v>13.53228433472409</v>
+        <v>12.39641282105363</v>
       </c>
       <c r="F11">
-        <v>38.13979827202828</v>
+        <v>34.38741429396983</v>
       </c>
       <c r="G11">
-        <v>43.95938337660627</v>
+        <v>44.48567060208872</v>
       </c>
       <c r="H11">
-        <v>17.57036397490628</v>
+        <v>12.56449078176776</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.09269633633719</v>
+        <v>7.155701028683549</v>
       </c>
       <c r="K11">
-        <v>16.2856495239298</v>
+        <v>23.5227327623345</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.16640573491161</v>
+        <v>11.55163532919958</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.204098171146255</v>
+        <v>9.057034828030023</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.344789258705417</v>
+        <v>7.30126589892197</v>
       </c>
       <c r="E12">
-        <v>13.55267332941566</v>
+        <v>12.52465469950365</v>
       </c>
       <c r="F12">
-        <v>38.17493533109441</v>
+        <v>34.70833734611954</v>
       </c>
       <c r="G12">
-        <v>44.02811653538745</v>
+        <v>44.95681213771356</v>
       </c>
       <c r="H12">
-        <v>17.56734650115915</v>
+        <v>12.62849555595788</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.09390501255954</v>
+        <v>7.199934712273788</v>
       </c>
       <c r="K12">
-        <v>16.38449216429364</v>
+        <v>23.83221116468627</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.14820243424348</v>
+        <v>11.47711827951522</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.198738571972306</v>
+        <v>9.032246365280539</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.342075323237715</v>
+        <v>7.285451663673014</v>
       </c>
       <c r="E13">
-        <v>13.54826644946326</v>
+        <v>12.49707421087022</v>
       </c>
       <c r="F13">
-        <v>38.16730114825337</v>
+        <v>34.63914606290619</v>
       </c>
       <c r="G13">
-        <v>44.01322623815515</v>
+        <v>44.85527157654819</v>
       </c>
       <c r="H13">
-        <v>17.56797131748197</v>
+        <v>12.61462724887558</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.0936332494456</v>
+        <v>7.190387436891512</v>
       </c>
       <c r="K13">
-        <v>16.3632365509555</v>
+        <v>23.7658107388324</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.15211023375522</v>
+        <v>11.49316314621319</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.181278364918438</v>
+        <v>8.951000608344408</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.333249532721748</v>
+        <v>7.233740415934518</v>
       </c>
       <c r="E14">
-        <v>13.53395463615457</v>
+        <v>12.40698075862313</v>
       </c>
       <c r="F14">
-        <v>38.14265889794289</v>
+        <v>34.41378311376682</v>
       </c>
       <c r="G14">
-        <v>43.96499865552145</v>
+        <v>44.52439933266674</v>
       </c>
       <c r="H14">
-        <v>17.5701044388255</v>
+        <v>12.56971886542289</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.0927906127868</v>
+        <v>7.159330811112071</v>
       </c>
       <c r="K14">
-        <v>16.29379561505328</v>
+        <v>23.54830719206524</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.16490245523348</v>
+        <v>11.54550298917463</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.170598189120588</v>
+        <v>8.900923280889431</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.327862783031323</v>
+        <v>7.201960429121554</v>
       </c>
       <c r="E15">
-        <v>13.5252345556316</v>
+        <v>12.35168303889257</v>
       </c>
       <c r="F15">
-        <v>38.12776066304978</v>
+        <v>34.27596101030068</v>
       </c>
       <c r="G15">
-        <v>43.93571447457939</v>
+        <v>44.32194094769788</v>
       </c>
       <c r="H15">
-        <v>17.57148436955885</v>
+        <v>12.54245514516276</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.09230802217951</v>
+        <v>7.1403684556372</v>
       </c>
       <c r="K15">
-        <v>16.25116916335034</v>
+        <v>23.4143416123652</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.17277500103337</v>
+        <v>11.57757474461396</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.109636521809172</v>
+        <v>8.609144525897596</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.29729488501798</v>
+        <v>7.018244605539073</v>
       </c>
       <c r="E16">
-        <v>13.47598255939855</v>
+        <v>12.03308648549224</v>
       </c>
       <c r="F16">
-        <v>38.04539912114563</v>
+        <v>33.48954075095939</v>
       </c>
       <c r="G16">
-        <v>43.77186355210974</v>
+        <v>43.16498252763323</v>
       </c>
       <c r="H16">
-        <v>17.58051528703654</v>
+        <v>12.38990399411945</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.09005722679356</v>
+        <v>7.032631649536285</v>
       </c>
       <c r="K16">
-        <v>16.00555716536428</v>
+        <v>22.63521073042711</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.21845671987217</v>
+        <v>11.76160250420985</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.07247273567604</v>
+        <v>8.425833219427137</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.278817365006402</v>
+        <v>6.904136905482339</v>
       </c>
       <c r="E17">
-        <v>13.44641983220757</v>
+        <v>11.8361441018704</v>
       </c>
       <c r="F17">
-        <v>37.99757533169399</v>
+        <v>33.01015386620219</v>
       </c>
       <c r="G17">
-        <v>43.6749176408724</v>
+        <v>42.45817371119546</v>
       </c>
       <c r="H17">
-        <v>17.58705657753766</v>
+        <v>12.2995512686377</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.08913627656966</v>
+        <v>6.967366436993487</v>
       </c>
       <c r="K17">
-        <v>15.85376846337588</v>
+        <v>22.14692428907922</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.24698846582279</v>
+        <v>11.87476431711985</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.051190398380761</v>
+        <v>8.326139503692138</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.268292943532629</v>
+        <v>6.837998946380938</v>
       </c>
       <c r="E18">
-        <v>13.42965953768969</v>
+        <v>11.72233340842912</v>
       </c>
       <c r="F18">
-        <v>37.97106621418268</v>
+        <v>32.73556701634408</v>
       </c>
       <c r="G18">
-        <v>43.62048209059417</v>
+        <v>42.05274792723092</v>
       </c>
       <c r="H18">
-        <v>17.59118641940455</v>
+        <v>12.24874844327757</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.08877575345796</v>
+        <v>6.930131910725374</v>
       </c>
       <c r="K18">
-        <v>15.76608664171767</v>
+        <v>21.86223907014412</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.26358616594306</v>
+        <v>11.93997100478562</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.044001271080164</v>
+        <v>8.296215766459417</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.264747526184216</v>
+        <v>6.815519861402311</v>
       </c>
       <c r="E19">
-        <v>13.42402695555536</v>
+        <v>11.68370881559383</v>
       </c>
       <c r="F19">
-        <v>37.96226249103609</v>
+        <v>32.6427955105264</v>
       </c>
       <c r="G19">
-        <v>43.60227990656495</v>
+        <v>41.91567226868872</v>
       </c>
       <c r="H19">
-        <v>17.59264778078346</v>
+        <v>12.23174559302287</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.08868276064853</v>
+        <v>6.917577248429178</v>
       </c>
       <c r="K19">
-        <v>15.7363374798088</v>
+        <v>21.76518659499214</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.26923802542567</v>
+        <v>11.96207123101005</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.076419391654541</v>
+        <v>8.44551195002118</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.280773683469295</v>
+        <v>6.916336496834729</v>
       </c>
       <c r="E20">
-        <v>13.44954172977879</v>
+        <v>11.8571646494074</v>
       </c>
       <c r="F20">
-        <v>38.00256308340382</v>
+        <v>33.06106758784357</v>
       </c>
       <c r="G20">
-        <v>43.68510082642609</v>
+        <v>42.53330042911728</v>
       </c>
       <c r="H20">
-        <v>17.58632220431215</v>
+        <v>12.30904832969953</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.08921680756028</v>
+        <v>6.974282545101795</v>
       </c>
       <c r="K20">
-        <v>15.86996638732061</v>
+        <v>22.19929920710888</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.24393187064333</v>
+        <v>11.86270619347849</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.186403826394494</v>
+        <v>8.974929408826195</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.335837872198438</v>
+        <v>7.248951256217677</v>
       </c>
       <c r="E21">
-        <v>13.53814873248232</v>
+        <v>12.43346695950573</v>
       </c>
       <c r="F21">
-        <v>38.14985613848852</v>
+        <v>34.47993202707815</v>
       </c>
       <c r="G21">
-        <v>43.97911086681921</v>
+        <v>44.62154070534431</v>
       </c>
       <c r="H21">
-        <v>17.56946260494004</v>
+        <v>12.58285857656228</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.09303112539865</v>
+        <v>7.168440233621933</v>
       </c>
       <c r="K21">
-        <v>16.31421141513882</v>
+        <v>23.61234686259938</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.16113737399492</v>
+        <v>11.5301271165691</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.258962608390272</v>
+        <v>9.306944240338575</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.372695743654363</v>
+        <v>7.461642967172992</v>
       </c>
       <c r="E22">
-        <v>13.59814219848486</v>
+        <v>12.80509618089516</v>
       </c>
       <c r="F22">
-        <v>38.25489994478861</v>
+        <v>35.41710071454807</v>
       </c>
       <c r="G22">
-        <v>44.18278363497204</v>
+        <v>45.99580723037113</v>
       </c>
       <c r="H22">
-        <v>17.56172492177231</v>
+        <v>12.77266859278214</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.09702611065866</v>
+        <v>7.2980510326681</v>
       </c>
       <c r="K22">
-        <v>16.60052472238505</v>
+        <v>24.50268396263057</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.10868109143755</v>
+        <v>11.31336609155897</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.220182017827755</v>
+        <v>9.131010851296924</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.352946847058368</v>
+        <v>7.348561620283295</v>
       </c>
       <c r="E23">
-        <v>13.56593607229402</v>
+        <v>12.60721836533452</v>
       </c>
       <c r="F23">
-        <v>38.19803838873317</v>
+        <v>34.91602055171268</v>
       </c>
       <c r="G23">
-        <v>44.07303991801319</v>
+        <v>45.26147241026231</v>
       </c>
       <c r="H23">
-        <v>17.56555407460506</v>
+        <v>12.67034598403395</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.09475671178812</v>
+        <v>7.228625461843861</v>
       </c>
       <c r="K23">
-        <v>16.44811338322625</v>
+        <v>24.03047935326147</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.13652709525542</v>
+        <v>11.42902439352116</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.074634846324033</v>
+        <v>8.436620317410574</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.279888924378996</v>
+        <v>6.9108227285706</v>
       </c>
       <c r="E24">
-        <v>13.44812958477551</v>
+        <v>11.847663081426</v>
       </c>
       <c r="F24">
-        <v>38.00030505008139</v>
+        <v>33.03804631528395</v>
       </c>
       <c r="G24">
-        <v>43.6804929558165</v>
+        <v>42.49933274258122</v>
       </c>
       <c r="H24">
-        <v>17.58665306453129</v>
+        <v>12.30475115605606</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.08917987320819</v>
+        <v>6.971154877685061</v>
       </c>
       <c r="K24">
-        <v>15.86264459545089</v>
+        <v>22.17563286064681</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.24531315155215</v>
+        <v>11.8681572038364</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.921295072340547</v>
+        <v>7.766510576776028</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.205062806834363</v>
+        <v>6.419502019665289</v>
       </c>
       <c r="E25">
-        <v>13.33040495088877</v>
+        <v>11.00826023879615</v>
       </c>
       <c r="F25">
-        <v>37.82520686993696</v>
+        <v>31.05666828152754</v>
       </c>
       <c r="G25">
-        <v>43.30785305699841</v>
+        <v>39.5633838438068</v>
       </c>
       <c r="H25">
-        <v>17.62345295597995</v>
+        <v>11.95469059444912</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.08963368852625</v>
+        <v>6.705090581563661</v>
       </c>
       <c r="K25">
-        <v>15.21717127514022</v>
+        <v>20.02774426351862</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.36981230883078</v>
+        <v>12.34660199222659</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.257852616031142</v>
+        <v>24.11372441679774</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.042811724558121</v>
+        <v>6.843135906613809</v>
       </c>
       <c r="E2">
-        <v>10.37536308430041</v>
+        <v>13.70956068826402</v>
       </c>
       <c r="F2">
-        <v>29.63964549923486</v>
+        <v>16.52368475944129</v>
       </c>
       <c r="G2">
-        <v>37.44500698609436</v>
+        <v>20.6358324748598</v>
       </c>
       <c r="H2">
-        <v>11.73240408431521</v>
+        <v>1.864706367121294</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.967160927948027</v>
       </c>
       <c r="J2">
-        <v>6.519291176553878</v>
+        <v>7.785825353093665</v>
       </c>
       <c r="K2">
-        <v>18.31470995029471</v>
+        <v>16.65924061633839</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.325979743411066</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.7052234974583</v>
+        <v>15.19436909286341</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.76814093571411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.898952254932951</v>
+        <v>22.57370003099136</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.779341696570139</v>
+        <v>6.855830924262175</v>
       </c>
       <c r="E3">
-        <v>9.939051581063294</v>
+        <v>13.39059118332443</v>
       </c>
       <c r="F3">
-        <v>28.70827061704557</v>
+        <v>16.39991477756095</v>
       </c>
       <c r="G3">
-        <v>36.0412996909297</v>
+        <v>19.76805841792674</v>
       </c>
       <c r="H3">
-        <v>11.60251261984827</v>
+        <v>2.079079359923434</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.10630070913465</v>
       </c>
       <c r="J3">
-        <v>6.399765486403288</v>
+        <v>7.759378656526246</v>
       </c>
       <c r="K3">
-        <v>17.0694389611694</v>
+        <v>16.6611556891324</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.10464076239284</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.95321756582868</v>
+        <v>14.24222464962707</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.54632585668701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672301471022496</v>
+        <v>21.57102048784516</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.614028667355453</v>
+        <v>6.865172295216778</v>
       </c>
       <c r="E4">
-        <v>9.668330432166265</v>
+        <v>13.19324006555083</v>
       </c>
       <c r="F4">
-        <v>28.15182792350104</v>
+        <v>16.3379938623634</v>
       </c>
       <c r="G4">
-        <v>35.1972468917055</v>
+        <v>19.23505485922362</v>
       </c>
       <c r="H4">
-        <v>11.53251651139368</v>
+        <v>2.214776675672441</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.194486063155421</v>
       </c>
       <c r="J4">
-        <v>6.329564697791044</v>
+        <v>7.747931247236868</v>
       </c>
       <c r="K4">
-        <v>16.26255365791395</v>
+        <v>16.67733543677945</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.967121541301951</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.10822760692766</v>
+        <v>13.62725941702726</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.41830980117485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57848728297763</v>
+        <v>21.14810209905475</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.545860064804453</v>
+        <v>6.869744877935835</v>
       </c>
       <c r="E5">
-        <v>9.557444703440275</v>
+        <v>13.11879293721564</v>
       </c>
       <c r="F5">
-        <v>27.92913789138943</v>
+        <v>16.30785062279334</v>
       </c>
       <c r="G5">
-        <v>34.85812178917417</v>
+        <v>19.00673649570244</v>
       </c>
       <c r="H5">
-        <v>11.5063721384862</v>
+        <v>2.271066299110508</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.23332026603976</v>
       </c>
       <c r="J5">
-        <v>6.301764559109533</v>
+        <v>7.742481696299729</v>
       </c>
       <c r="K5">
-        <v>15.92301488154803</v>
+        <v>16.69721317593444</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.914349198456083</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.17212529245186</v>
+        <v>13.38066145459013</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.36331910594965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562825952895645</v>
+        <v>21.0770593413264</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.53449509630037</v>
+        <v>6.871003400103342</v>
       </c>
       <c r="E6">
-        <v>9.539002725206574</v>
+        <v>13.11411918345007</v>
       </c>
       <c r="F6">
-        <v>27.8924113649652</v>
+        <v>16.29283738172543</v>
       </c>
       <c r="G6">
-        <v>34.80211282732071</v>
+        <v>18.95486702709935</v>
       </c>
       <c r="H6">
-        <v>11.50217236855413</v>
+        <v>2.280413360483696</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.242625891791974</v>
       </c>
       <c r="J6">
-        <v>6.297197260901968</v>
+        <v>7.739253589584122</v>
       </c>
       <c r="K6">
-        <v>15.86598424418075</v>
+        <v>16.71258542952165</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.910013276794158</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.1827806775141</v>
+        <v>13.35344480696711</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.34833064543867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671041955293809</v>
+        <v>21.56549343394684</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.613112443893244</v>
+        <v>6.86658962791053</v>
       </c>
       <c r="E7">
-        <v>9.666837068711926</v>
+        <v>13.21323893850559</v>
       </c>
       <c r="F7">
-        <v>28.14880794150055</v>
+        <v>16.30981080294203</v>
       </c>
       <c r="G7">
-        <v>35.19265328547647</v>
+        <v>19.1943943213876</v>
       </c>
       <c r="H7">
-        <v>11.5321543848974</v>
+        <v>2.215336139024538</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.202410771858895</v>
       </c>
       <c r="J7">
-        <v>6.329186500423072</v>
+        <v>7.741344962936498</v>
       </c>
       <c r="K7">
-        <v>16.25801807041688</v>
+        <v>16.71030060706816</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.97853729674191</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.1090863463656</v>
+        <v>13.66176630652141</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.40134983863859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.135478724242879</v>
+        <v>23.59466344646314</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.952751351973071</v>
+        <v>6.849245622747372</v>
       </c>
       <c r="E8">
-        <v>10.22559036643262</v>
+        <v>13.62752412304954</v>
       </c>
       <c r="F8">
-        <v>29.31541582660416</v>
+        <v>16.4419759243469</v>
       </c>
       <c r="G8">
-        <v>36.95751071492294</v>
+        <v>20.29003080030389</v>
       </c>
       <c r="H8">
-        <v>11.68554884833117</v>
+        <v>1.937427840388859</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.023820943708002</v>
       </c>
       <c r="J8">
-        <v>6.477420490238068</v>
+        <v>7.767214688845274</v>
       </c>
       <c r="K8">
-        <v>17.89405811702833</v>
+        <v>16.70160536618747</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.265965038981113</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.79018832446003</v>
+        <v>14.91846145403282</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.66915517369983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.991749546699885</v>
+        <v>27.1215085396446</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.587447637855867</v>
+        <v>6.824837625544474</v>
       </c>
       <c r="E9">
-        <v>11.29352309139355</v>
+        <v>14.38763675332066</v>
       </c>
       <c r="F9">
-        <v>31.71791533245956</v>
+        <v>16.86524441800232</v>
       </c>
       <c r="G9">
-        <v>40.54615593924765</v>
+        <v>22.48457950625786</v>
       </c>
       <c r="H9">
-        <v>12.06692359948683</v>
+        <v>1.693401030077059</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.683153992077468</v>
       </c>
       <c r="J9">
-        <v>6.793154962347223</v>
+        <v>7.868793756436681</v>
       </c>
       <c r="K9">
-        <v>20.7713811443445</v>
+        <v>16.74744686777365</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.793208660656296</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.18459255024289</v>
+        <v>17.08128335971912</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.28631096157136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.62984612399721</v>
+        <v>29.43893628226971</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.031195749969974</v>
+        <v>6.8349615099064</v>
       </c>
       <c r="E10">
-        <v>12.05548542667478</v>
+        <v>15.07515921308827</v>
       </c>
       <c r="F10">
-        <v>33.54439546503453</v>
+        <v>17.09591628329254</v>
       </c>
       <c r="G10">
-        <v>43.24578264049293</v>
+        <v>23.8823697169583</v>
       </c>
       <c r="H10">
-        <v>12.40037342547255</v>
+        <v>2.040659139915936</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.452500277018283</v>
       </c>
       <c r="J10">
-        <v>7.040120079057119</v>
+        <v>7.932796672575063</v>
       </c>
       <c r="K10">
-        <v>22.69041107626134</v>
+        <v>16.99634436308881</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.25138745628724</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.74870458278172</v>
+        <v>18.49257836491098</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.6895723049371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.9414428142268</v>
+        <v>30.43465299014305</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.227669345560707</v>
+        <v>7.052484010898846</v>
       </c>
       <c r="E11">
-        <v>12.39641282105363</v>
+        <v>16.63064642783926</v>
       </c>
       <c r="F11">
-        <v>34.38741429396983</v>
+        <v>15.94218327972266</v>
       </c>
       <c r="G11">
-        <v>44.48567060208872</v>
+        <v>22.98191726233225</v>
       </c>
       <c r="H11">
-        <v>12.56449078176776</v>
+        <v>2.955662010214227</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.385297295511108</v>
       </c>
       <c r="J11">
-        <v>7.155701028683549</v>
+        <v>7.665914552512406</v>
       </c>
       <c r="K11">
-        <v>23.5227327623345</v>
+        <v>18.26113930548076</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.17649573421434</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.55163532919958</v>
+        <v>18.76015153679717</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.15938708127762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.057034828030023</v>
+        <v>30.80319209802751</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.30126589892197</v>
+        <v>7.278270835688806</v>
       </c>
       <c r="E12">
-        <v>12.52465469950365</v>
+        <v>17.85500212308758</v>
       </c>
       <c r="F12">
-        <v>34.70833734611954</v>
+        <v>14.93669000403496</v>
       </c>
       <c r="G12">
-        <v>44.95681213771356</v>
+        <v>21.95425108836992</v>
       </c>
       <c r="H12">
-        <v>12.62849555595788</v>
+        <v>4.221134758616511</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.359969188204194</v>
       </c>
       <c r="J12">
-        <v>7.199934712273788</v>
+        <v>7.428867830870119</v>
       </c>
       <c r="K12">
-        <v>23.83221116468627</v>
+        <v>19.29549283003024</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.89133748791081</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.47711827951522</v>
+        <v>18.64643630193251</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.63274139853869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.032246365280539</v>
+        <v>30.72446430785648</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.285451663673014</v>
+        <v>7.518797803728826</v>
       </c>
       <c r="E13">
-        <v>12.49707421087022</v>
+        <v>18.93106216578475</v>
       </c>
       <c r="F13">
-        <v>34.63914606290619</v>
+        <v>13.93373302448572</v>
       </c>
       <c r="G13">
-        <v>44.85527157654819</v>
+        <v>20.67783722845056</v>
       </c>
       <c r="H13">
-        <v>12.61462724887558</v>
+        <v>5.543127468657319</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.377849758222588</v>
       </c>
       <c r="J13">
-        <v>7.190387436891512</v>
+        <v>7.188462637328925</v>
       </c>
       <c r="K13">
-        <v>23.7658107388324</v>
+        <v>20.24951788600357</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.50722094891777</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.49316314621319</v>
+        <v>18.27325886161286</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.04210169977873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.951000608344408</v>
+        <v>30.46582452680637</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.233740415934518</v>
+        <v>7.697671261325896</v>
       </c>
       <c r="E14">
-        <v>12.40698075862313</v>
+        <v>19.63625354474072</v>
       </c>
       <c r="F14">
-        <v>34.41378311376682</v>
+        <v>13.22794025309749</v>
       </c>
       <c r="G14">
-        <v>44.52439933266674</v>
+        <v>19.64368328668955</v>
       </c>
       <c r="H14">
-        <v>12.56971886542289</v>
+        <v>6.489268160964344</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.412235664430068</v>
       </c>
       <c r="J14">
-        <v>7.159330811112071</v>
+        <v>7.017035091817168</v>
       </c>
       <c r="K14">
-        <v>23.54830719206524</v>
+        <v>20.8984005778094</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.90438514007761</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.54550298917463</v>
+        <v>17.89710475582669</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.5917566776449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.900923280889431</v>
+        <v>30.30627111538728</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.201960429121554</v>
+        <v>7.740205942778163</v>
       </c>
       <c r="E15">
-        <v>12.35168303889257</v>
+        <v>19.77840801554235</v>
       </c>
       <c r="F15">
-        <v>34.27596101030068</v>
+        <v>13.05138073280846</v>
       </c>
       <c r="G15">
-        <v>44.32194094769788</v>
+        <v>19.32458853225602</v>
       </c>
       <c r="H15">
-        <v>12.54245514516276</v>
+        <v>6.703974311736868</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.433872706503151</v>
       </c>
       <c r="J15">
-        <v>7.1403684556372</v>
+        <v>6.973444381150343</v>
       </c>
       <c r="K15">
-        <v>23.4143416123652</v>
+        <v>21.04780836328665</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.98116435644849</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.57757474461396</v>
+        <v>17.76058742506481</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.46438541162851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.609144525897596</v>
+        <v>29.37497553530763</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.018244605539073</v>
+        <v>7.678702328117287</v>
       </c>
       <c r="E16">
-        <v>12.03308648549224</v>
+        <v>19.32180089688876</v>
       </c>
       <c r="F16">
-        <v>33.48954075095939</v>
+        <v>13.11856505993438</v>
       </c>
       <c r="G16">
-        <v>43.16498252763323</v>
+        <v>18.85653206828656</v>
       </c>
       <c r="H16">
-        <v>12.38990399411945</v>
+        <v>6.435273636578296</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.535086361470376</v>
       </c>
       <c r="J16">
-        <v>7.032631649536285</v>
+        <v>6.985545318407232</v>
       </c>
       <c r="K16">
-        <v>22.63521073042711</v>
+        <v>20.74059630254</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.69120049045508</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.76160250420985</v>
+        <v>17.24999656512255</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.37298525773376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.425833219427137</v>
+        <v>28.78845168612649</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.904136905482339</v>
+        <v>7.534025248069478</v>
       </c>
       <c r="E17">
-        <v>11.8361441018704</v>
+        <v>18.57447063375007</v>
       </c>
       <c r="F17">
-        <v>33.01015386620219</v>
+        <v>13.54804220148357</v>
       </c>
       <c r="G17">
-        <v>42.45817371119546</v>
+        <v>19.07851478317114</v>
       </c>
       <c r="H17">
-        <v>12.2995512686377</v>
+        <v>5.68791321701329</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.594822753814376</v>
       </c>
       <c r="J17">
-        <v>6.967366436993487</v>
+        <v>7.087423804121514</v>
       </c>
       <c r="K17">
-        <v>22.14692428907922</v>
+        <v>20.15566003297197</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.24532750783834</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.87476431711985</v>
+        <v>17.06221362835307</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.55061629695881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.326139503692138</v>
+        <v>28.44513365125562</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.837998946380938</v>
+        <v>7.315290113234599</v>
       </c>
       <c r="E18">
-        <v>11.72233340842912</v>
+        <v>17.4997422603621</v>
       </c>
       <c r="F18">
-        <v>32.73556701634408</v>
+        <v>14.35219713665494</v>
       </c>
       <c r="G18">
-        <v>42.05274792723092</v>
+        <v>19.93839187325694</v>
       </c>
       <c r="H18">
-        <v>12.24874844327757</v>
+        <v>4.432330347522791</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.615748476292678</v>
       </c>
       <c r="J18">
-        <v>6.930131910725374</v>
+        <v>7.279743485617672</v>
       </c>
       <c r="K18">
-        <v>21.86223907014412</v>
+        <v>19.2525278073845</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.61939876166853</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.93997100478562</v>
+        <v>17.11067370190339</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.98421026985922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.296215766459417</v>
+        <v>28.32720950457735</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.815519861402311</v>
+        <v>7.091291593451833</v>
       </c>
       <c r="E19">
-        <v>11.68370881559383</v>
+        <v>16.34570899872446</v>
       </c>
       <c r="F19">
-        <v>32.6427955105264</v>
+        <v>15.35363626044408</v>
       </c>
       <c r="G19">
-        <v>41.91567226868872</v>
+        <v>21.16570579488988</v>
       </c>
       <c r="H19">
-        <v>12.23174559302287</v>
+        <v>3.027278985996728</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.616966520815004</v>
       </c>
       <c r="J19">
-        <v>6.917577248429178</v>
+        <v>7.517442672858874</v>
       </c>
       <c r="K19">
-        <v>21.76518659499214</v>
+        <v>18.29148349047226</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.95393670615146</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.96207123101005</v>
+        <v>17.39674928870851</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.55640203653227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.44551195002118</v>
+        <v>28.84884467562544</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.916336496834729</v>
+        <v>6.83889372998938</v>
       </c>
       <c r="E20">
-        <v>11.8571646494074</v>
+        <v>14.96530837122162</v>
       </c>
       <c r="F20">
-        <v>33.06106758784357</v>
+        <v>16.94392708894899</v>
       </c>
       <c r="G20">
-        <v>42.53330042911728</v>
+        <v>23.41458161512466</v>
       </c>
       <c r="H20">
-        <v>12.30904832969953</v>
+        <v>1.950282700023484</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.536457902956109</v>
       </c>
       <c r="J20">
-        <v>6.974282545101795</v>
+        <v>7.893656293036779</v>
       </c>
       <c r="K20">
-        <v>22.19929920710888</v>
+        <v>17.04417634779941</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.17220019315035</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86270619347849</v>
+        <v>18.21984737543702</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.53261860653311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.974929408826195</v>
+        <v>30.54090656985995</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.248951256217677</v>
+        <v>6.818585346726719</v>
       </c>
       <c r="E21">
-        <v>12.43346695950573</v>
+        <v>15.26769565920651</v>
       </c>
       <c r="F21">
-        <v>34.47993202707815</v>
+        <v>17.38569116178896</v>
       </c>
       <c r="G21">
-        <v>44.62154070534431</v>
+        <v>24.76994097789341</v>
       </c>
       <c r="H21">
-        <v>12.58285857656228</v>
+        <v>2.217971264371956</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.354247064074477</v>
       </c>
       <c r="J21">
-        <v>7.168440233621933</v>
+        <v>8.007714207113258</v>
       </c>
       <c r="K21">
-        <v>23.61234686259938</v>
+        <v>17.06323241927304</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.39192662934072</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.5301271165691</v>
+        <v>19.30150547866599</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.9897151117601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.306944240338575</v>
+        <v>31.59779969808708</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.461642967172992</v>
+        <v>6.813934469575223</v>
       </c>
       <c r="E22">
-        <v>12.80509618089516</v>
+        <v>15.50480455408913</v>
       </c>
       <c r="F22">
-        <v>35.41710071454807</v>
+        <v>17.64742016818229</v>
       </c>
       <c r="G22">
-        <v>45.99580723037113</v>
+        <v>25.59321939973208</v>
       </c>
       <c r="H22">
-        <v>12.77266859278214</v>
+        <v>2.386827977213863</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.228788792383751</v>
       </c>
       <c r="J22">
-        <v>7.2980510326681</v>
+        <v>8.077951820223889</v>
       </c>
       <c r="K22">
-        <v>24.50268396263057</v>
+        <v>17.10319328462757</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.55764603114042</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.31336609155897</v>
+        <v>19.92468159837687</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.27071634197249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.131010851296924</v>
+        <v>31.03818543367695</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.348561620283295</v>
+        <v>6.813797637992276</v>
       </c>
       <c r="E23">
-        <v>12.60721836533452</v>
+        <v>15.35527482082368</v>
       </c>
       <c r="F23">
-        <v>34.91602055171268</v>
+        <v>17.53558110171652</v>
       </c>
       <c r="G23">
-        <v>45.26147241026231</v>
+        <v>25.18784392552894</v>
       </c>
       <c r="H23">
-        <v>12.67034598403395</v>
+        <v>2.29638781549283</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.286059864876933</v>
       </c>
       <c r="J23">
-        <v>7.228625461843861</v>
+        <v>8.047014090153445</v>
       </c>
       <c r="K23">
-        <v>24.03047935326147</v>
+        <v>17.03664859787815</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.45598023923968</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.42902439352116</v>
+        <v>19.56250497133805</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.13639157315114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.436620317410574</v>
+        <v>28.82022638923315</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.9108227285706</v>
+        <v>6.820323088657723</v>
       </c>
       <c r="E24">
-        <v>11.847663081426</v>
+        <v>14.81794074542086</v>
       </c>
       <c r="F24">
-        <v>33.03804631528395</v>
+        <v>17.09664638852171</v>
       </c>
       <c r="G24">
-        <v>42.49933274258122</v>
+        <v>23.58593398432808</v>
       </c>
       <c r="H24">
-        <v>12.30475115605606</v>
+        <v>1.949189430238463</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.522351196591565</v>
       </c>
       <c r="J24">
-        <v>6.971154877685061</v>
+        <v>7.929517275067623</v>
       </c>
       <c r="K24">
-        <v>22.17563286064681</v>
+        <v>16.88670943707388</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.08610605798154</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.8681572038364</v>
+        <v>18.18542523495108</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.6156149789714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.766510576776028</v>
+        <v>26.21571377768157</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.419502019665289</v>
+        <v>6.833332737664896</v>
       </c>
       <c r="E25">
-        <v>11.00826023879615</v>
+        <v>14.22117118577465</v>
       </c>
       <c r="F25">
-        <v>31.05666828152754</v>
+        <v>16.69014084568769</v>
       </c>
       <c r="G25">
-        <v>39.5633838438068</v>
+        <v>21.83582052811182</v>
       </c>
       <c r="H25">
-        <v>11.95469059444912</v>
+        <v>1.561790069407644</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.786171373663966</v>
       </c>
       <c r="J25">
-        <v>6.705090581563661</v>
+        <v>7.825594599505757</v>
       </c>
       <c r="K25">
-        <v>20.02774426351862</v>
+        <v>16.78511941567234</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.673903016673219</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.34660199222659</v>
+        <v>16.57877253234192</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.08550345045922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.11372441679774</v>
+        <v>24.08063351667382</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.843135906613809</v>
+        <v>6.608618407392852</v>
       </c>
       <c r="E2">
-        <v>13.70956068826402</v>
+        <v>12.81932384414467</v>
       </c>
       <c r="F2">
-        <v>16.52368475944129</v>
+        <v>17.28943435442055</v>
       </c>
       <c r="G2">
-        <v>20.6358324748598</v>
+        <v>21.13928185499531</v>
       </c>
       <c r="H2">
-        <v>1.864706367121294</v>
+        <v>1.762833313964476</v>
       </c>
       <c r="I2">
-        <v>3.967160927948027</v>
+        <v>3.706482322276106</v>
       </c>
       <c r="J2">
-        <v>7.785825353093665</v>
+        <v>8.682798572418768</v>
       </c>
       <c r="K2">
-        <v>16.65924061633839</v>
+        <v>15.29713716718623</v>
       </c>
       <c r="L2">
-        <v>9.325979743411066</v>
+        <v>11.42550760791855</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.1570694773663</v>
       </c>
       <c r="N2">
-        <v>15.19436909286341</v>
+        <v>8.823059390023564</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>14.31861415284179</v>
       </c>
       <c r="Q2">
-        <v>12.76814093571411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.26402158882315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57370003099136</v>
+        <v>22.52870486075725</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.855830924262175</v>
+        <v>6.626662955230374</v>
       </c>
       <c r="E3">
-        <v>13.39059118332443</v>
+        <v>12.5271850518235</v>
       </c>
       <c r="F3">
-        <v>16.39991477756095</v>
+        <v>17.10013404604296</v>
       </c>
       <c r="G3">
-        <v>19.76805841792674</v>
+        <v>20.1821319537767</v>
       </c>
       <c r="H3">
-        <v>2.079079359923434</v>
+        <v>1.963256510902464</v>
       </c>
       <c r="I3">
-        <v>4.10630070913465</v>
+        <v>3.825869784196744</v>
       </c>
       <c r="J3">
-        <v>7.759378656526246</v>
+        <v>8.618270431513739</v>
       </c>
       <c r="K3">
-        <v>16.6611556891324</v>
+        <v>15.34747339805881</v>
       </c>
       <c r="L3">
-        <v>9.10464076239284</v>
+        <v>11.29791032291462</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.37973071100324</v>
       </c>
       <c r="N3">
-        <v>14.24222464962707</v>
+        <v>8.616461057337895</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13.39462833862884</v>
       </c>
       <c r="Q3">
-        <v>12.54632585668701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.00976901869423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.57102048784516</v>
+        <v>21.51720799950186</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.865172295216778</v>
+        <v>6.6393575273297</v>
       </c>
       <c r="E4">
-        <v>13.19324006555083</v>
+        <v>12.34743451858625</v>
       </c>
       <c r="F4">
-        <v>16.3379938623634</v>
+        <v>16.99435933041035</v>
       </c>
       <c r="G4">
-        <v>19.23505485922362</v>
+        <v>19.59035024798235</v>
       </c>
       <c r="H4">
-        <v>2.214776675672441</v>
+        <v>2.090208502723903</v>
       </c>
       <c r="I4">
-        <v>4.194486063155421</v>
+        <v>3.901825025921558</v>
       </c>
       <c r="J4">
-        <v>7.747931247236868</v>
+        <v>8.580543534353396</v>
       </c>
       <c r="K4">
-        <v>16.67733543677945</v>
+        <v>15.39301715687716</v>
       </c>
       <c r="L4">
-        <v>8.967121541301951</v>
+        <v>11.24535271686434</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.52532014154183</v>
       </c>
       <c r="N4">
-        <v>13.62725941702726</v>
+        <v>8.488611131538295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>12.79815136910991</v>
       </c>
       <c r="Q4">
-        <v>12.41830980117485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.85938052013514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.14810209905475</v>
+        <v>21.09029516820804</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.869744877935835</v>
+        <v>6.645008050331448</v>
       </c>
       <c r="E5">
-        <v>13.11879293721564</v>
+        <v>12.27900757889388</v>
       </c>
       <c r="F5">
-        <v>16.30785062279334</v>
+        <v>16.94631836618746</v>
       </c>
       <c r="G5">
-        <v>19.00673649570244</v>
+        <v>19.33830912219116</v>
       </c>
       <c r="H5">
-        <v>2.271066299110508</v>
+        <v>2.142950349989519</v>
       </c>
       <c r="I5">
-        <v>4.23332026603976</v>
+        <v>3.936133484106975</v>
       </c>
       <c r="J5">
-        <v>7.742481696299729</v>
+        <v>8.563984944424197</v>
       </c>
       <c r="K5">
-        <v>16.69721317593444</v>
+        <v>15.42154258478695</v>
       </c>
       <c r="L5">
-        <v>8.914349198456083</v>
+        <v>11.23294863405272</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.59380645544671</v>
       </c>
       <c r="N5">
-        <v>13.38066145459013</v>
+        <v>8.439143914912897</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>12.55789669169314</v>
       </c>
       <c r="Q5">
-        <v>12.36331910594965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.79524646754638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0770593413264</v>
+        <v>21.0185635692894</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.871003400103342</v>
+        <v>6.646071145122351</v>
       </c>
       <c r="E6">
-        <v>13.11411918345007</v>
+        <v>12.27358503598785</v>
       </c>
       <c r="F6">
-        <v>16.29283738172543</v>
+        <v>16.92930448508029</v>
       </c>
       <c r="G6">
-        <v>18.95486702709935</v>
+        <v>19.28391373199715</v>
       </c>
       <c r="H6">
-        <v>2.280413360483696</v>
+        <v>2.151783286330529</v>
       </c>
       <c r="I6">
-        <v>4.242625891791974</v>
+        <v>3.945320571619378</v>
       </c>
       <c r="J6">
-        <v>7.739253589584122</v>
+        <v>8.559236205547768</v>
       </c>
       <c r="K6">
-        <v>16.71258542952165</v>
+        <v>15.43438386629623</v>
       </c>
       <c r="L6">
-        <v>8.910013276794158</v>
+        <v>11.23438504809189</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.61388796137594</v>
       </c>
       <c r="N6">
-        <v>13.35344480696711</v>
+        <v>8.434392710898591</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>12.52988903005216</v>
       </c>
       <c r="Q6">
-        <v>12.34833064543867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.77940300768813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56549343394684</v>
+        <v>21.51166269145651</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.86658962791053</v>
+        <v>6.638504060300154</v>
       </c>
       <c r="E7">
-        <v>13.21323893850559</v>
+        <v>12.35866484059525</v>
       </c>
       <c r="F7">
-        <v>16.30981080294203</v>
+        <v>16.95539060261737</v>
       </c>
       <c r="G7">
-        <v>19.1943943213876</v>
+        <v>19.65371354490032</v>
       </c>
       <c r="H7">
-        <v>2.215336139024538</v>
+        <v>2.091500083718601</v>
       </c>
       <c r="I7">
-        <v>4.202410771858895</v>
+        <v>3.911574081445658</v>
       </c>
       <c r="J7">
-        <v>7.741344962936498</v>
+        <v>8.528913136572188</v>
       </c>
       <c r="K7">
-        <v>16.71030060706816</v>
+        <v>15.41844774757944</v>
       </c>
       <c r="L7">
-        <v>8.97853729674191</v>
+        <v>11.25617127355401</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.55253943411811</v>
       </c>
       <c r="N7">
-        <v>13.66176630652141</v>
+        <v>8.496059998702734</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>12.82413836750989</v>
       </c>
       <c r="Q7">
-        <v>12.40134983863859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.83073867637015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59466344646314</v>
+        <v>23.55785170234486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.849245622747372</v>
+        <v>6.610957309881295</v>
       </c>
       <c r="E8">
-        <v>13.62752412304954</v>
+        <v>12.72707444413987</v>
       </c>
       <c r="F8">
-        <v>16.4419759243469</v>
+        <v>17.14597599533796</v>
       </c>
       <c r="G8">
-        <v>20.29003080030389</v>
+        <v>21.08422222698988</v>
       </c>
       <c r="H8">
-        <v>1.937427840388859</v>
+        <v>1.832829772943685</v>
       </c>
       <c r="I8">
-        <v>4.023820943708002</v>
+        <v>3.759157309064778</v>
       </c>
       <c r="J8">
-        <v>7.767214688845274</v>
+        <v>8.503060402619058</v>
       </c>
       <c r="K8">
-        <v>16.70160536618747</v>
+        <v>15.35357268303748</v>
       </c>
       <c r="L8">
-        <v>9.265965038981113</v>
+        <v>11.4000951609007</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.27192594327579</v>
       </c>
       <c r="N8">
-        <v>14.91846145403282</v>
+        <v>8.760251593704156</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>14.03495333276716</v>
       </c>
       <c r="Q8">
-        <v>12.66915517369983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.11309250643845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.1215085396446</v>
+        <v>27.10668307357128</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.824837625544474</v>
+        <v>6.573394806479059</v>
       </c>
       <c r="E9">
-        <v>14.38763675332066</v>
+        <v>13.42869958561775</v>
       </c>
       <c r="F9">
-        <v>16.86524441800232</v>
+        <v>17.6970552074868</v>
       </c>
       <c r="G9">
-        <v>22.48457950625786</v>
+        <v>23.52363646783425</v>
       </c>
       <c r="H9">
-        <v>1.693401030077059</v>
+        <v>1.762323711452061</v>
       </c>
       <c r="I9">
-        <v>3.683153992077468</v>
+        <v>3.46561357228655</v>
       </c>
       <c r="J9">
-        <v>7.868793756436681</v>
+        <v>8.642539953813841</v>
       </c>
       <c r="K9">
-        <v>16.74744686777365</v>
+        <v>15.2927810704062</v>
       </c>
       <c r="L9">
-        <v>9.793208660656296</v>
+        <v>11.8500199986186</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.74433177857652</v>
       </c>
       <c r="N9">
-        <v>17.08128335971912</v>
+        <v>9.256057211938298</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>16.13727472147859</v>
       </c>
       <c r="Q9">
-        <v>13.28631096157136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.7849839124964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43893628226971</v>
+        <v>29.43404961509117</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.8349615099064</v>
+        <v>6.559700093332068</v>
       </c>
       <c r="E10">
-        <v>15.07515921308827</v>
+        <v>14.03403837988626</v>
       </c>
       <c r="F10">
-        <v>17.09591628329254</v>
+        <v>17.94394976355223</v>
       </c>
       <c r="G10">
-        <v>23.8823697169583</v>
+        <v>25.56893283738309</v>
       </c>
       <c r="H10">
-        <v>2.040659139915936</v>
+        <v>2.082470771604154</v>
       </c>
       <c r="I10">
-        <v>3.452500277018283</v>
+        <v>3.271445868685177</v>
       </c>
       <c r="J10">
-        <v>7.932796672575063</v>
+        <v>8.474130634684608</v>
       </c>
       <c r="K10">
-        <v>16.99634436308881</v>
+        <v>15.44376834228465</v>
       </c>
       <c r="L10">
-        <v>10.25138745628724</v>
+        <v>12.37698282863262</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.49939850678196</v>
       </c>
       <c r="N10">
-        <v>18.49257836491098</v>
+        <v>9.674110235505697</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>17.4723672001986</v>
       </c>
       <c r="Q10">
-        <v>13.6895723049371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.15414850179946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43465299014305</v>
+        <v>30.43260066195133</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.052484010898846</v>
+        <v>6.685685959180223</v>
       </c>
       <c r="E11">
-        <v>16.63064642783926</v>
+        <v>15.32727146849696</v>
       </c>
       <c r="F11">
-        <v>15.94218327972266</v>
+        <v>16.80176104615844</v>
       </c>
       <c r="G11">
-        <v>22.98191726233225</v>
+        <v>25.91059276073089</v>
       </c>
       <c r="H11">
-        <v>2.955662010214227</v>
+        <v>2.970244774427635</v>
       </c>
       <c r="I11">
-        <v>3.385297295511108</v>
+        <v>3.226426643204847</v>
       </c>
       <c r="J11">
-        <v>7.665914552512406</v>
+        <v>7.758955413609146</v>
       </c>
       <c r="K11">
-        <v>18.26113930548076</v>
+        <v>16.38525422861393</v>
       </c>
       <c r="L11">
-        <v>11.17649573421434</v>
+        <v>13.27505748301251</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.06873870244464</v>
       </c>
       <c r="N11">
-        <v>18.76015153679717</v>
+        <v>10.4640698216061</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>17.52476961948777</v>
       </c>
       <c r="Q11">
-        <v>13.15938708127762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.56341010528986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80319209802751</v>
+        <v>30.80193388888157</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.278270835688806</v>
+        <v>6.834629064295274</v>
       </c>
       <c r="E12">
-        <v>17.85500212308758</v>
+        <v>16.35824327692742</v>
       </c>
       <c r="F12">
-        <v>14.93669000403496</v>
+        <v>15.84584846169625</v>
       </c>
       <c r="G12">
-        <v>21.95425108836992</v>
+        <v>25.5143532892382</v>
       </c>
       <c r="H12">
-        <v>4.221134758616511</v>
+        <v>4.225732110360232</v>
       </c>
       <c r="I12">
-        <v>3.359969188204194</v>
+        <v>3.209065822051168</v>
       </c>
       <c r="J12">
-        <v>7.428867830870119</v>
+        <v>7.364648009514396</v>
       </c>
       <c r="K12">
-        <v>19.29549283003024</v>
+        <v>17.15445941821614</v>
       </c>
       <c r="L12">
-        <v>11.89133748791081</v>
+        <v>13.92673624664024</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.6014809175827</v>
       </c>
       <c r="N12">
-        <v>18.64643630193251</v>
+        <v>11.07578141107449</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>17.25869921218172</v>
       </c>
       <c r="Q12">
-        <v>12.63274139853869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.03611886556654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72446430785648</v>
+        <v>30.72279688253406</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.518797803728826</v>
+        <v>7.015487802978433</v>
       </c>
       <c r="E13">
-        <v>18.93106216578475</v>
+        <v>17.28615713858047</v>
       </c>
       <c r="F13">
-        <v>13.93373302448572</v>
+        <v>14.9574968391796</v>
       </c>
       <c r="G13">
-        <v>20.67783722845056</v>
+        <v>24.25155150520398</v>
       </c>
       <c r="H13">
-        <v>5.543127468657319</v>
+        <v>5.545227237196611</v>
       </c>
       <c r="I13">
-        <v>3.377849758222588</v>
+        <v>3.226832933861477</v>
       </c>
       <c r="J13">
-        <v>7.188462637328925</v>
+        <v>7.245988297988585</v>
       </c>
       <c r="K13">
-        <v>20.24951788600357</v>
+        <v>17.83964932602369</v>
       </c>
       <c r="L13">
-        <v>12.50722094891777</v>
+        <v>14.41998646895566</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.15003781788102</v>
       </c>
       <c r="N13">
-        <v>18.27325886161286</v>
+        <v>11.60577728769036</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>16.76901917631471</v>
       </c>
       <c r="Q13">
-        <v>12.04210169977873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.52558411688043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46582452680637</v>
+        <v>30.46331209161878</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.697671261325896</v>
+        <v>7.161979834364838</v>
       </c>
       <c r="E14">
-        <v>19.63625354474072</v>
+        <v>17.90545515639624</v>
       </c>
       <c r="F14">
-        <v>13.22794025309749</v>
+        <v>14.35567224402393</v>
       </c>
       <c r="G14">
-        <v>19.64368328668955</v>
+        <v>22.95528563309172</v>
       </c>
       <c r="H14">
-        <v>6.489268160964344</v>
+        <v>6.491288211230314</v>
       </c>
       <c r="I14">
-        <v>3.412235664430068</v>
+        <v>3.258114573445955</v>
       </c>
       <c r="J14">
-        <v>7.017035091817168</v>
+        <v>7.272178562416899</v>
       </c>
       <c r="K14">
-        <v>20.8984005778094</v>
+        <v>18.29160113680238</v>
       </c>
       <c r="L14">
-        <v>12.90438514007761</v>
+        <v>14.69922667731315</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.5515113772042</v>
       </c>
       <c r="N14">
-        <v>17.89710475582669</v>
+        <v>11.94881515367641</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>16.32434554045405</v>
       </c>
       <c r="Q14">
-        <v>11.5917566776449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.1664954001734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30627111538728</v>
+        <v>30.30325613903658</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.740205942778163</v>
+        <v>7.201253824263637</v>
       </c>
       <c r="E15">
-        <v>19.77840801554235</v>
+        <v>18.03450294639576</v>
       </c>
       <c r="F15">
-        <v>13.05138073280846</v>
+        <v>14.21459755317975</v>
       </c>
       <c r="G15">
-        <v>19.32458853225602</v>
+        <v>22.45487390374265</v>
       </c>
       <c r="H15">
-        <v>6.703974311736868</v>
+        <v>6.706452321408825</v>
       </c>
       <c r="I15">
-        <v>3.433872706503151</v>
+        <v>3.278033349832489</v>
       </c>
       <c r="J15">
-        <v>6.973444381150343</v>
+        <v>7.325074865836574</v>
       </c>
       <c r="K15">
-        <v>21.04780836328665</v>
+        <v>18.38972214156481</v>
       </c>
       <c r="L15">
-        <v>12.98116435644849</v>
+        <v>14.73681324579728</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.65875456097434</v>
       </c>
       <c r="N15">
-        <v>17.76058742506481</v>
+        <v>12.01520978448309</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>16.1766386361412</v>
       </c>
       <c r="Q15">
-        <v>11.46438541162851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.0761896855256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.37497553530763</v>
+        <v>29.36878665137088</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.678702328117287</v>
+        <v>7.186750918546083</v>
       </c>
       <c r="E16">
-        <v>19.32180089688876</v>
+        <v>17.66788041064749</v>
       </c>
       <c r="F16">
-        <v>13.11856505993438</v>
+        <v>14.35192912872542</v>
       </c>
       <c r="G16">
-        <v>18.85653206828656</v>
+        <v>20.98530806746063</v>
       </c>
       <c r="H16">
-        <v>6.435273636578296</v>
+        <v>6.438220249496525</v>
       </c>
       <c r="I16">
-        <v>3.535086361470376</v>
+        <v>3.36294792507147</v>
       </c>
       <c r="J16">
-        <v>6.985545318407232</v>
+        <v>7.744139455236093</v>
       </c>
       <c r="K16">
-        <v>20.74059630254</v>
+        <v>18.11214388728493</v>
       </c>
       <c r="L16">
-        <v>12.69120049045508</v>
+        <v>14.32627984933519</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.62112413933276</v>
       </c>
       <c r="N16">
-        <v>17.24999656512255</v>
+        <v>11.76368458788324</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>15.73344080496041</v>
       </c>
       <c r="Q16">
-        <v>11.37298525773376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.09525693201646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78845168612649</v>
+        <v>28.78001612215823</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.534025248069478</v>
+        <v>7.089207429117566</v>
       </c>
       <c r="E17">
-        <v>18.57447063375007</v>
+        <v>17.03103290709044</v>
       </c>
       <c r="F17">
-        <v>13.54804220148357</v>
+        <v>14.76686712590878</v>
       </c>
       <c r="G17">
-        <v>19.07851478317114</v>
+        <v>20.70371269964156</v>
       </c>
       <c r="H17">
-        <v>5.68791321701329</v>
+        <v>5.681861731420441</v>
       </c>
       <c r="I17">
-        <v>3.594822753814376</v>
+        <v>3.412207781199684</v>
       </c>
       <c r="J17">
-        <v>7.087423804121514</v>
+        <v>8.007142680849908</v>
       </c>
       <c r="K17">
-        <v>20.15566003297197</v>
+        <v>17.67041463689537</v>
       </c>
       <c r="L17">
-        <v>12.24532750783834</v>
+        <v>13.87520136501083</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.38423107626663</v>
       </c>
       <c r="N17">
-        <v>17.06221362835307</v>
+        <v>11.3758849197973</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>15.63246692885966</v>
       </c>
       <c r="Q17">
-        <v>11.55061629695881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.28998439194666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44513365125562</v>
+        <v>28.43539541384455</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.315290113234599</v>
+        <v>6.927694478573334</v>
       </c>
       <c r="E18">
-        <v>17.4997422603621</v>
+        <v>16.10862629235438</v>
       </c>
       <c r="F18">
-        <v>14.35219713665494</v>
+        <v>15.50692041267136</v>
       </c>
       <c r="G18">
-        <v>19.93839187325694</v>
+        <v>21.26143568211343</v>
       </c>
       <c r="H18">
-        <v>4.432330347522791</v>
+        <v>4.450046229866496</v>
       </c>
       <c r="I18">
-        <v>3.615748476292678</v>
+        <v>3.424556963220151</v>
       </c>
       <c r="J18">
-        <v>7.279743485617672</v>
+        <v>8.243350953571388</v>
       </c>
       <c r="K18">
-        <v>19.2525278073845</v>
+        <v>17.01786311145581</v>
       </c>
       <c r="L18">
-        <v>11.61939876166853</v>
+        <v>13.3265538792236</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.92975146147874</v>
       </c>
       <c r="N18">
-        <v>17.11067370190339</v>
+        <v>10.83539381361109</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>15.80284250060177</v>
       </c>
       <c r="Q18">
-        <v>11.98421026985922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.68961962661448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32720950457735</v>
+        <v>28.31726244194401</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.091291593451833</v>
+        <v>6.76082184591894</v>
       </c>
       <c r="E19">
-        <v>16.34570899872446</v>
+        <v>15.12057267904162</v>
       </c>
       <c r="F19">
-        <v>15.35363626044408</v>
+        <v>16.4195204622279</v>
       </c>
       <c r="G19">
-        <v>21.16570579488988</v>
+        <v>22.30583909699143</v>
       </c>
       <c r="H19">
-        <v>3.027278985996728</v>
+        <v>3.057110733395545</v>
       </c>
       <c r="I19">
-        <v>3.616966520815004</v>
+        <v>3.423562067117971</v>
       </c>
       <c r="J19">
-        <v>7.517442672858874</v>
+        <v>8.464380761859696</v>
       </c>
       <c r="K19">
-        <v>18.29148349047226</v>
+        <v>16.34080803251357</v>
       </c>
       <c r="L19">
-        <v>10.95393670615146</v>
+        <v>12.81199161227393</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.40840830423863</v>
       </c>
       <c r="N19">
-        <v>17.39674928870851</v>
+        <v>10.26441416818109</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>16.22305855482206</v>
       </c>
       <c r="Q19">
-        <v>12.55640203653227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.20428328048654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.84884467562544</v>
+        <v>28.84172426466953</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.83889372998938</v>
+        <v>6.571512051583237</v>
       </c>
       <c r="E20">
-        <v>14.96530837122162</v>
+        <v>13.94596572405239</v>
       </c>
       <c r="F20">
-        <v>16.94392708894899</v>
+        <v>17.84458836412957</v>
       </c>
       <c r="G20">
-        <v>23.41458161512466</v>
+        <v>24.6556950699028</v>
       </c>
       <c r="H20">
-        <v>1.950282700023484</v>
+        <v>2.000081611288441</v>
       </c>
       <c r="I20">
-        <v>3.536457902956109</v>
+        <v>3.351108959569878</v>
       </c>
       <c r="J20">
-        <v>7.893656293036779</v>
+        <v>8.65513829716763</v>
       </c>
       <c r="K20">
-        <v>17.04417634779941</v>
+        <v>15.47442930937618</v>
       </c>
       <c r="L20">
-        <v>10.17220019315035</v>
+        <v>12.28716647516701</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.62132505623135</v>
       </c>
       <c r="N20">
-        <v>18.21984737543702</v>
+        <v>9.602423305059322</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>17.21693463378746</v>
       </c>
       <c r="Q20">
-        <v>13.53261860653311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.05721812035631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.54090656985995</v>
+        <v>30.53966488507238</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.818585346726719</v>
+        <v>6.518441947734847</v>
       </c>
       <c r="E21">
-        <v>15.26769565920651</v>
+        <v>14.15176571825546</v>
       </c>
       <c r="F21">
-        <v>17.38569116178896</v>
+        <v>18.03077563747463</v>
       </c>
       <c r="G21">
-        <v>24.76994097789341</v>
+        <v>27.95314040353511</v>
       </c>
       <c r="H21">
-        <v>2.217971264371956</v>
+        <v>2.240376417214808</v>
       </c>
       <c r="I21">
-        <v>3.354247064074477</v>
+        <v>3.198933747048</v>
       </c>
       <c r="J21">
-        <v>8.007714207113258</v>
+        <v>7.803662842849127</v>
       </c>
       <c r="K21">
-        <v>17.06323241927304</v>
+        <v>15.55095335225692</v>
       </c>
       <c r="L21">
-        <v>10.39192662934072</v>
+        <v>12.67827478776188</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.39403506721488</v>
       </c>
       <c r="N21">
-        <v>19.30150547866599</v>
+        <v>9.788795748229335</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>18.21941747139239</v>
       </c>
       <c r="Q21">
-        <v>13.9897151117601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.23945228842292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.59779969808708</v>
+        <v>31.59924634891151</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.813934469575223</v>
+        <v>6.490471308046581</v>
       </c>
       <c r="E22">
-        <v>15.50480455408913</v>
+        <v>14.31757107073268</v>
       </c>
       <c r="F22">
-        <v>17.64742016818229</v>
+        <v>18.10706518625518</v>
       </c>
       <c r="G22">
-        <v>25.59321939973208</v>
+        <v>30.09884880957262</v>
       </c>
       <c r="H22">
-        <v>2.386827977213863</v>
+        <v>2.391387296591496</v>
       </c>
       <c r="I22">
-        <v>3.228788792383751</v>
+        <v>3.090662843470798</v>
       </c>
       <c r="J22">
-        <v>8.077951820223889</v>
+        <v>7.237332004195792</v>
       </c>
       <c r="K22">
-        <v>17.10319328462757</v>
+        <v>15.62930976003456</v>
       </c>
       <c r="L22">
-        <v>10.55764603114042</v>
+        <v>12.95894464314441</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.26640732060299</v>
       </c>
       <c r="N22">
-        <v>19.92468159837687</v>
+        <v>9.928988298816842</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>18.78473228024024</v>
       </c>
       <c r="Q22">
-        <v>14.27071634197249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.32557343463224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.03818543367695</v>
+        <v>31.03830628898601</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.813797637992276</v>
+        <v>6.507141190831872</v>
       </c>
       <c r="E23">
-        <v>15.35527482082368</v>
+        <v>14.21981242372347</v>
       </c>
       <c r="F23">
-        <v>17.53558110171652</v>
+        <v>18.12387855793212</v>
       </c>
       <c r="G23">
-        <v>25.18784392552894</v>
+        <v>28.7823937356644</v>
       </c>
       <c r="H23">
-        <v>2.29638781549283</v>
+        <v>2.311695404473087</v>
       </c>
       <c r="I23">
-        <v>3.286059864876933</v>
+        <v>3.136038143904956</v>
       </c>
       <c r="J23">
-        <v>8.047014090153445</v>
+        <v>7.6372345200132</v>
       </c>
       <c r="K23">
-        <v>17.03664859787815</v>
+        <v>15.54139340481999</v>
       </c>
       <c r="L23">
-        <v>10.45598023923968</v>
+        <v>12.77387331903341</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.29903016769217</v>
       </c>
       <c r="N23">
-        <v>19.56250497133805</v>
+        <v>9.846380098880921</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>18.46458792808968</v>
       </c>
       <c r="Q23">
-        <v>14.13639157315114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.32525594712022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82022638923315</v>
+        <v>28.81304625312767</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.820323088657723</v>
+        <v>6.559764075766748</v>
       </c>
       <c r="E24">
-        <v>14.81794074542086</v>
+        <v>13.82271902287172</v>
       </c>
       <c r="F24">
-        <v>17.09664638852171</v>
+        <v>17.98199686051218</v>
       </c>
       <c r="G24">
-        <v>23.58593398432808</v>
+        <v>24.78840038901252</v>
       </c>
       <c r="H24">
-        <v>1.949189430238463</v>
+        <v>2.000294046505447</v>
       </c>
       <c r="I24">
-        <v>3.522351196591565</v>
+        <v>3.332884288451821</v>
       </c>
       <c r="J24">
-        <v>7.929517275067623</v>
+        <v>8.693005093378572</v>
       </c>
       <c r="K24">
-        <v>16.88670943707388</v>
+        <v>15.36053369448405</v>
       </c>
       <c r="L24">
-        <v>10.08610605798154</v>
+        <v>12.19881037930257</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.53440927696409</v>
       </c>
       <c r="N24">
-        <v>18.18542523495108</v>
+        <v>9.529694704611828</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>17.20399007094641</v>
       </c>
       <c r="Q24">
-        <v>13.6156149789714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.13213233704966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.21571377768157</v>
+        <v>26.19604686521357</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.833332737664896</v>
+        <v>6.585515385361281</v>
       </c>
       <c r="E25">
-        <v>14.22117118577465</v>
+        <v>13.27537521317848</v>
       </c>
       <c r="F25">
-        <v>16.69014084568769</v>
+        <v>17.51489335910097</v>
       </c>
       <c r="G25">
-        <v>21.83582052811182</v>
+        <v>22.69411721760611</v>
       </c>
       <c r="H25">
-        <v>1.561790069407644</v>
+        <v>1.63986895697668</v>
       </c>
       <c r="I25">
-        <v>3.786171373663966</v>
+        <v>3.558818124574128</v>
       </c>
       <c r="J25">
-        <v>7.825594599505757</v>
+        <v>8.656986140181216</v>
       </c>
       <c r="K25">
-        <v>16.78511941567234</v>
+        <v>15.33769601082518</v>
       </c>
       <c r="L25">
-        <v>9.673903016673219</v>
+        <v>11.73665139012752</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.91440005073444</v>
       </c>
       <c r="N25">
-        <v>16.57877253234192</v>
+        <v>9.142520991050453</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>15.64747421042751</v>
       </c>
       <c r="Q25">
-        <v>13.08550345045922</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.59318416077108</v>
       </c>
     </row>
   </sheetData>
